--- a/data/expt_2/raw_transcripts/game42.xlsx
+++ b/data/expt_2/raw_transcripts/game42.xlsx
@@ -1,25 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
+  <bookViews>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="MVI_0067.MP4.csv" sheetId="1" r:id="rId4"/>
+    <sheet name="MVI_0067.MP4.csv" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author/>
+    <author>Unknown Author</author>
   </authors>
   <commentList>
-    <comment authorId="0" ref="E238">
+    <comment ref="E238" authorId="0">
       <text>
-        <t xml:space="preserve">tapped before teller could say anything
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">tapped before teller could say anything
 	-Rebecca Jacqueline Pizzitola</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -27,42 +43,42 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="256">
-  <si>
-    <t>start</t>
-  </si>
-  <si>
-    <t>end</t>
-  </si>
-  <si>
-    <t>text</t>
-  </si>
-  <si>
-    <t>speaker</t>
-  </si>
-  <si>
-    <t>trial</t>
-  </si>
-  <si>
-    <t>role</t>
-  </si>
-  <si>
-    <t>echo</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>Now you're on camera.</t>
-  </si>
-  <si>
-    <t>R</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="256">
+  <si>
+    <t xml:space="preserve">start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">end</t>
+  </si>
+  <si>
+    <t xml:space="preserve">text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">speaker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">role</t>
+  </si>
+  <si>
+    <t xml:space="preserve">echo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Now you're on camera.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R</t>
   </si>
   <si>
     <t xml:space="preserve"> So we're going to play one second, [id87], one second.</t>
   </si>
   <si>
-    <t>We're going to play a fun matching game.</t>
+    <t xml:space="preserve">We're going to play a fun matching game.</t>
   </si>
   <si>
     <t xml:space="preserve"> But before we do that, we're going to practice touching the iPads with a fun bubble popping game, okay?</t>
@@ -71,106 +87,106 @@
     <t xml:space="preserve"> Oh, I know bubble pop.</t>
   </si>
   <si>
-    <t>Yeah.</t>
-  </si>
-  <si>
-    <t>So you're going to press...</t>
-  </si>
-  <si>
-    <t>I like with my baby.</t>
-  </si>
-  <si>
-    <t>She does it really good.</t>
+    <t xml:space="preserve">Yeah.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">So you're going to press...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I like with my baby.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">She does it really good.</t>
   </si>
   <si>
     <t xml:space="preserve"> Okay, so you're going to press the blue button.</t>
   </si>
   <si>
-    <t>What's the blue button?</t>
-  </si>
-  <si>
-    <t>There you go and then now you're going to touch the bubbles to pop them.</t>
+    <t xml:space="preserve">What's the blue button?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There you go and then now you're going to touch the bubbles to pop them.</t>
   </si>
   <si>
     <t xml:space="preserve"> Touch them with one finger, one finger.</t>
   </si>
   <si>
-    <t>Here maybe we should let's hold this.</t>
-  </si>
-  <si>
-    <t>I'll put this right here and then you can show me.</t>
-  </si>
-  <si>
-    <t>So there you go.</t>
-  </si>
-  <si>
-    <t>Just lightly touch it.</t>
+    <t xml:space="preserve">Here maybe we should let's hold this.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I'll put this right here and then you can show me.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">So there you go.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Just lightly touch it.</t>
   </si>
   <si>
     <t xml:space="preserve"> Wait, what?</t>
   </si>
   <si>
-    <t>Like this.</t>
-  </si>
-  <si>
-    <t>Like that.</t>
-  </si>
-  <si>
-    <t>So lightly touch.</t>
-  </si>
-  <si>
-    <t>Light.</t>
+    <t xml:space="preserve">Like this.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Like that.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">So lightly touch.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Light.</t>
   </si>
   <si>
     <t xml:space="preserve"> There you go, see.</t>
   </si>
   <si>
-    <t>Keep going with the smiley faces.</t>
-  </si>
-  <si>
-    <t>with the smiley faces just like you were doing before just like</t>
-  </si>
-  <si>
-    <t>how do you just touch it there you go here don't don't pull it down anything</t>
-  </si>
-  <si>
-    <t>just touch just like you were doing before I just like you're doing before</t>
-  </si>
-  <si>
-    <t>touch see I did my dad good job good job touch touch touch touch</t>
-  </si>
-  <si>
-    <t>Touch with your fingers.</t>
-  </si>
-  <si>
-    <t>Just touch.</t>
-  </si>
-  <si>
-    <t>This.</t>
+    <t xml:space="preserve">Keep going with the smiley faces.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">with the smiley faces just like you were doing before just like</t>
+  </si>
+  <si>
+    <t xml:space="preserve">how do you just touch it there you go here don't don't pull it down anything</t>
+  </si>
+  <si>
+    <t xml:space="preserve">just touch just like you were doing before I just like you're doing before</t>
+  </si>
+  <si>
+    <t xml:space="preserve">touch see I did my dad good job good job touch touch touch touch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Touch with your fingers.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Just touch.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This.</t>
   </si>
   <si>
     <t xml:space="preserve"> Look, this.</t>
   </si>
   <si>
-    <t>See?</t>
-  </si>
-  <si>
-    <t>And touch.</t>
-  </si>
-  <si>
-    <t>There you go.</t>
-  </si>
-  <si>
-    <t>Okay.</t>
+    <t xml:space="preserve">See?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">And touch.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There you go.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Okay.</t>
   </si>
   <si>
     <t xml:space="preserve"> Now, do you see a picture of my friend Smurphy?</t>
   </si>
   <si>
-    <t>That's one hundred than chess.</t>
-  </si>
-  <si>
-    <t>id86</t>
+    <t xml:space="preserve">That's one hundred than chess.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id86</t>
   </si>
   <si>
     <t xml:space="preserve"> Yeah, good job.</t>
@@ -185,28 +201,28 @@
     <t xml:space="preserve"> So, this is my friend Smurphy.</t>
   </si>
   <si>
-    <t>Smurphy do you want to say hi hi hi [id86] hi [id87] so in my game you're gonna help my</t>
-  </si>
-  <si>
-    <t>friend Smurphy just take a seat [id87] so I can explain to you so in the game</t>
-  </si>
-  <si>
-    <t>on the screens you're gonna see two pictures just like this one of you guys will</t>
-  </si>
-  <si>
-    <t>have a black box around the picture do you see the black box if you have the</t>
-  </si>
-  <si>
-    <t>black box you're gonna be the teller and you're gonna help tell my friend Smurphy</t>
-  </si>
-  <si>
-    <t>what you see in the black box if you don't have the black box just like this</t>
-  </si>
-  <si>
-    <t>you're going to be the guesser and you're going to be holding Smurphy and you're going to help Smurphy guess what you think your friend has in the black box okay</t>
-  </si>
-  <si>
-    <t>Does that make sense? Let's recap. So wait just just one second</t>
+    <t xml:space="preserve">Smurphy do you want to say hi hi hi [id86] hi [id87] so in my game you're gonna help my</t>
+  </si>
+  <si>
+    <t xml:space="preserve">friend Smurphy just take a seat [id87] so I can explain to you so in the game</t>
+  </si>
+  <si>
+    <t xml:space="preserve">on the screens you're gonna see two pictures just like this one of you guys will</t>
+  </si>
+  <si>
+    <t xml:space="preserve">have a black box around the picture do you see the black box if you have the</t>
+  </si>
+  <si>
+    <t xml:space="preserve">black box you're gonna be the teller and you're gonna help tell my friend Smurphy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">what you see in the black box if you don't have the black box just like this</t>
+  </si>
+  <si>
+    <t xml:space="preserve">you're going to be the guesser and you're going to be holding Smurphy and you're going to help Smurphy guess what you think your friend has in the black box okay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does that make sense? Let's recap. So wait just just one second</t>
   </si>
   <si>
     <t xml:space="preserve"> If one second [id87] I'll I'll face the iPads to you. Okay, so</t>
@@ -215,22 +231,22 @@
     <t xml:space="preserve"> Can you that make sense? Yeah, we could you want to play</t>
   </si>
   <si>
-    <t>You're excited. It's a really fun game. I will just remember if you have the black box. You're gonna be the</t>
-  </si>
-  <si>
-    <t>A teller.</t>
-  </si>
-  <si>
-    <t>You will be the teller.</t>
-  </si>
-  <si>
-    <t>I want to be the guesser.</t>
-  </si>
-  <si>
-    <t>id87</t>
-  </si>
-  <si>
-    <t>You guys will take turns switching being the teller and the guesser.</t>
+    <t xml:space="preserve">You're excited. It's a really fun game. I will just remember if you have the black box. You're gonna be the</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A teller.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You will be the teller.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I want to be the guesser.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id87</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You guys will take turns switching being the teller and the guesser.</t>
   </si>
   <si>
     <t xml:space="preserve"> And if you get it right, you're going to see a smiley face.</t>
@@ -242,22 +258,22 @@
     <t xml:space="preserve"> But that's okay, because you're going to have many chances to help my friend Smurphy, okay?</t>
   </si>
   <si>
-    <t>Now I can't have it now?</t>
-  </si>
-  <si>
-    <t>Yes.</t>
+    <t xml:space="preserve">Now I can't have it now?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes.</t>
   </si>
   <si>
     <t xml:space="preserve"> You're going to press, you guys ready to play?</t>
   </si>
   <si>
-    <t>You're going to press the blue button.</t>
+    <t xml:space="preserve">You're going to press the blue button.</t>
   </si>
   <si>
     <t xml:space="preserve"> Okay, who has the black box?</t>
   </si>
   <si>
-    <t>Here.</t>
+    <t xml:space="preserve">Here.</t>
   </si>
   <si>
     <t xml:space="preserve"> Okay, so now, [id86] is going to be the guesser for the first round.</t>
@@ -266,22 +282,22 @@
     <t xml:space="preserve"> And [id87], you're going to tell us what you see in the black box.</t>
   </si>
   <si>
-    <t>A apple.</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>a apple</t>
+    <t xml:space="preserve">A apple.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a apple</t>
   </si>
   <si>
     <t xml:space="preserve"> And, [id86], you're going to touch the one that you think is in the black box.</t>
   </si>
   <si>
-    <t>Touch which picture you think is in the black box based on what [id87] is saying.</t>
-  </si>
-  <si>
-    <t>A a a a apple.</t>
+    <t xml:space="preserve">Touch which picture you think is in the black box based on what [id87] is saying.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A a a a apple.</t>
   </si>
   <si>
     <t xml:space="preserve"> Good job, see? And now you're going to switch. Now [id86] has a black box. So [id86] is going to, don't tap yet. Don't tap yet. You're going to, [id86] is going to tell you what he thinks is in the black box and you're going to tap it. Okay, [id87]. Okay, [id86], tell us what's in the black box on your screen.</t>
@@ -290,61 +306,61 @@
     <t xml:space="preserve"> A dog.</t>
   </si>
   <si>
-    <t>a dog</t>
-  </si>
-  <si>
-    <t>But the smiling face said, yay!</t>
-  </si>
-  <si>
-    <t>L</t>
+    <t xml:space="preserve">a dog</t>
+  </si>
+  <si>
+    <t xml:space="preserve">But the smiling face said, yay!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L</t>
   </si>
   <si>
     <t xml:space="preserve"> Yay, it did. Now [id87], tap what you think is in the black box. [id86], tell us.</t>
   </si>
   <si>
-    <t>drag you just touch just touch like that good job yes so now [id86] you can</t>
-  </si>
-  <si>
-    <t>A dog.</t>
-  </si>
-  <si>
-    <t>hold Smurphy and [id87] you're gonna tell us what's in the black box</t>
-  </si>
-  <si>
-    <t>a house.</t>
-  </si>
-  <si>
-    <t>a house</t>
-  </si>
-  <si>
-    <t>now you're gonna touch the one</t>
-  </si>
-  <si>
-    <t>A house. A house.</t>
-  </si>
-  <si>
-    <t>there you go now you're gonna switch</t>
-  </si>
-  <si>
-    <t>now you're gonna switch now you're gonna guess [id86] tell us</t>
-  </si>
-  <si>
-    <t>umm a duck</t>
-  </si>
-  <si>
-    <t>a duck</t>
-  </si>
-  <si>
-    <t>oh listen to what [id86] is saying I can don't touch don't don't</t>
-  </si>
-  <si>
-    <t>tap until you listen first.</t>
-  </si>
-  <si>
-    <t>duck</t>
-  </si>
-  <si>
-    <t>Do you hear him?</t>
+    <t xml:space="preserve">drag you just touch just touch like that good job yes so now [id86] you can</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A dog.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hold Smurphy and [id87] you're gonna tell us what's in the black box</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a house.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a house</t>
+  </si>
+  <si>
+    <t xml:space="preserve">now you're gonna touch the one</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A house. A house.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">there you go now you're gonna switch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">now you're gonna switch now you're gonna guess [id86] tell us</t>
+  </si>
+  <si>
+    <t xml:space="preserve">umm a duck</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a duck</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oh listen to what [id86] is saying I can don't touch don't don't</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tap until you listen first.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">duck</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do you hear him?</t>
   </si>
   <si>
     <t xml:space="preserve"> Okay, tap what you think it is.</t>
@@ -353,13 +369,13 @@
     <t xml:space="preserve"> Just tap, like that.</t>
   </si>
   <si>
-    <t>That's okay.</t>
-  </si>
-  <si>
-    <t>We'll do another round.</t>
-  </si>
-  <si>
-    <t>Ready?</t>
+    <t xml:space="preserve">That's okay.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We'll do another round.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ready?</t>
   </si>
   <si>
     <t xml:space="preserve"> Now, [id86], you're going to guess.</t>
@@ -368,34 +384,37 @@
     <t xml:space="preserve"> And [id87], tell us what's in the black box.</t>
   </si>
   <si>
-    <t>I don't know.</t>
-  </si>
-  <si>
-    <t>Use your best words.</t>
-  </si>
-  <si>
-    <t>Maybe a human.</t>
-  </si>
-  <si>
-    <t>a human</t>
-  </si>
-  <si>
-    <t>A human.</t>
-  </si>
-  <si>
-    <t>But what is the arms?</t>
+    <t xml:space="preserve">I don't know.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use your best words.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maybe a human.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a human</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A human.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">But what is the arms?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the arms</t>
   </si>
   <si>
     <t xml:space="preserve"> Make your best guess, [id86].</t>
   </si>
   <si>
-    <t>I want...</t>
-  </si>
-  <si>
-    <t>Good job!</t>
-  </si>
-  <si>
-    <t>Yay!</t>
+    <t xml:space="preserve">I want...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Good job!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yay!</t>
   </si>
   <si>
     <t xml:space="preserve"> Okay, now [id87]'s going to guess.</t>
@@ -404,64 +423,64 @@
     <t xml:space="preserve"> Don't tap anything just yet, [id87].</t>
   </si>
   <si>
-    <t>Wait until [id86] tells you...</t>
-  </si>
-  <si>
-    <t>What does?</t>
-  </si>
-  <si>
-    <t>Tap his nose.</t>
-  </si>
-  <si>
-    <t>Tell us what you think it is.</t>
+    <t xml:space="preserve">Wait until [id86] tells you...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What does?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tap his nose.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tell us what you think it is.</t>
   </si>
   <si>
     <t xml:space="preserve"> Um, a kite.</t>
   </si>
   <si>
-    <t>a kite</t>
+    <t xml:space="preserve">a kite</t>
   </si>
   <si>
     <t xml:space="preserve"> Okay, tap the one you think looks like it.</t>
   </si>
   <si>
-    <t>This one.</t>
-  </si>
-  <si>
-    <t>Now you get to switch.</t>
+    <t xml:space="preserve">This one.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Now you get to switch.</t>
   </si>
   <si>
     <t xml:space="preserve"> Well tell us, tell us what's in the black box, [id87].</t>
   </si>
   <si>
-    <t>A snow skater.</t>
-  </si>
-  <si>
-    <t>a snow skater</t>
-  </si>
-  <si>
-    <t>Ooh.</t>
-  </si>
-  <si>
-    <t>This is one.</t>
-  </si>
-  <si>
-    <t>Which one do you think it is?</t>
-  </si>
-  <si>
-    <t>A snow staker.</t>
-  </si>
-  <si>
-    <t>Guess the one that you think it is?</t>
-  </si>
-  <si>
-    <t>This one?</t>
-  </si>
-  <si>
-    <t>Guess it.</t>
-  </si>
-  <si>
-    <t>Whichever one.</t>
+    <t xml:space="preserve">A snow skater.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a snow skater</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ooh.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is one.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Which one do you think it is?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A snow staker.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guess the one that you think it is?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This one?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guess it.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Whichever one.</t>
   </si>
   <si>
     <t xml:space="preserve"> So, [id87],</t>
@@ -470,19 +489,19 @@
     <t xml:space="preserve"> [id87], can you tell [id86] what you see in the black box?</t>
   </si>
   <si>
-    <t>I know.</t>
-  </si>
-  <si>
-    <t>Touch the one that you think it is.</t>
+    <t xml:space="preserve">I know.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Touch the one that you think it is.</t>
   </si>
   <si>
     <t xml:space="preserve"> Yeah, touch it.</t>
   </si>
   <si>
-    <t>A snow skater!</t>
-  </si>
-  <si>
-    <t>There you go!</t>
+    <t xml:space="preserve">A snow skater!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There you go!</t>
   </si>
   <si>
     <t xml:space="preserve"> Okay, now you're going to switch.</t>
@@ -491,19 +510,19 @@
     <t xml:space="preserve"> Now [id87]'s going to hold Smurphy and Guess, and [id86], you're going to tell us what's in the black box.</t>
   </si>
   <si>
-    <t>I got to a diamond.</t>
-  </si>
-  <si>
-    <t>a diamond</t>
-  </si>
-  <si>
-    <t>A human carrying a diamond.</t>
-  </si>
-  <si>
-    <t>a human carrying a diamond</t>
-  </si>
-  <si>
-    <t>A human</t>
+    <t xml:space="preserve">I got to a diamond.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a diamond</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A human carrying a diamond.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a human carrying a diamond</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A human</t>
   </si>
   <si>
     <t xml:space="preserve"> No, this will be the body.</t>
@@ -512,19 +531,19 @@
     <t xml:space="preserve"> Well, you're, [id86] is telling you what he sees in the black box and you're going to guess which one you think it is.</t>
   </si>
   <si>
-    <t>You have to touch it with your finger.</t>
-  </si>
-  <si>
-    <t>Smurphy can't touch it.</t>
+    <t xml:space="preserve">You have to touch it with your finger.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smurphy can't touch it.</t>
   </si>
   <si>
     <t xml:space="preserve"> Remember, don't drag.</t>
   </si>
   <si>
-    <t>Just touch lightly.</t>
-  </si>
-  <si>
-    <t>Good job.</t>
+    <t xml:space="preserve">Just touch lightly.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Good job.</t>
   </si>
   <si>
     <t xml:space="preserve"> He said, yeah.</t>
@@ -533,22 +552,22 @@
     <t xml:space="preserve"> Okay, now [id87], you're going to tell us what's in the black box.</t>
   </si>
   <si>
-    <t>Tell us what's in the black box.</t>
-  </si>
-  <si>
-    <t>He said yay.</t>
-  </si>
-  <si>
-    <t>What?</t>
-  </si>
-  <si>
-    <t>The smiley face said yay.</t>
-  </si>
-  <si>
-    <t>Why did he say it said yay?</t>
-  </si>
-  <si>
-    <t>It said yay because you got it right.</t>
+    <t xml:space="preserve">Tell us what's in the black box.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">He said yay.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The smiley face said yay.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Why did he say it said yay?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It said yay because you got it right.</t>
   </si>
   <si>
     <t xml:space="preserve"> So now you're going to tell [id86], what's in the black box?</t>
@@ -557,61 +576,61 @@
     <t xml:space="preserve"> [id86], what's in the black box?</t>
   </si>
   <si>
-    <t>What's in the black box?</t>
+    <t xml:space="preserve">What's in the black box?</t>
   </si>
   <si>
     <t xml:space="preserve"> No, you tell him.</t>
   </si>
   <si>
-    <t>What do you see in the black box?</t>
+    <t xml:space="preserve">What do you see in the black box?</t>
   </si>
   <si>
     <t xml:space="preserve"> [id87], you're telling us.</t>
   </si>
   <si>
-    <t>A dog!</t>
-  </si>
-  <si>
-    <t>Guess which one that you think it is?</t>
-  </si>
-  <si>
-    <t>Where is there a dog?</t>
-  </si>
-  <si>
-    <t>There's no dogs here.</t>
-  </si>
-  <si>
-    <t>Why don't you tell [id87] what you see?</t>
-  </si>
-  <si>
-    <t>I see a person and a person.</t>
-  </si>
-  <si>
-    <t>It's bigger now.</t>
+    <t xml:space="preserve">A dog!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guess which one that you think it is?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Where is there a dog?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There's no dogs here.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Why don't you tell [id87] what you see?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I see a person and a person.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It's bigger now.</t>
   </si>
   <si>
     <t xml:space="preserve"> Well, let's not do that.</t>
   </si>
   <si>
-    <t>I want it's bigger.</t>
-  </si>
-  <si>
-    <t>[id87].</t>
-  </si>
-  <si>
-    <t>It's bigger!</t>
+    <t xml:space="preserve">I want it's bigger.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[id87].</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It's bigger!</t>
   </si>
   <si>
     <t xml:space="preserve"> [id87], listen to [id86].</t>
   </si>
   <si>
-    <t>[id86] is telling you what he sees.</t>
-  </si>
-  <si>
-    <t>A diamond.</t>
-  </si>
-  <si>
-    <t>I make it smaller.</t>
+    <t xml:space="preserve">[id86] is telling you what he sees.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A diamond.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I make it smaller.</t>
   </si>
   <si>
     <t xml:space="preserve"> What is this in the black box, [id87]?</t>
@@ -620,13 +639,13 @@
     <t xml:space="preserve"> And [id86], what do you see?</t>
   </si>
   <si>
-    <t>What two pictures do you see?</t>
-  </si>
-  <si>
-    <t>A human carrying a diamond and a...</t>
-  </si>
-  <si>
-    <t>I want it big.</t>
+    <t xml:space="preserve">What two pictures do you see?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A human carrying a diamond and a...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I want it big.</t>
   </si>
   <si>
     <t xml:space="preserve"> Okay, which one do you think [id87] [id86] has on his screen?</t>
@@ -635,25 +654,25 @@
     <t xml:space="preserve"> [id86], you can make your best guess.</t>
   </si>
   <si>
-    <t>This one is a...</t>
+    <t xml:space="preserve">This one is a...</t>
   </si>
   <si>
     <t xml:space="preserve"> Okay, now you're gonna guess [id87].</t>
   </si>
   <si>
-    <t>I didn't know he was...</t>
-  </si>
-  <si>
-    <t>A kite!</t>
+    <t xml:space="preserve">I didn't know he was...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A kite!</t>
   </si>
   <si>
     <t xml:space="preserve"> Which one do you see, [id86] in the black box?</t>
   </si>
   <si>
-    <t>A kite.</t>
-  </si>
-  <si>
-    <t>Like a kite!</t>
+    <t xml:space="preserve">A kite.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Like a kite!</t>
   </si>
   <si>
     <t xml:space="preserve"> So touch the one that you think it is, [id87].</t>
@@ -668,52 +687,49 @@
     <t xml:space="preserve"> A Taya, Taya!</t>
   </si>
   <si>
-    <t>no idea</t>
-  </si>
-  <si>
-    <t>What is that?</t>
+    <t xml:space="preserve">What is that?</t>
   </si>
   <si>
     <t xml:space="preserve"> A big, big gum ball.</t>
   </si>
   <si>
-    <t>a big big gum ball</t>
+    <t xml:space="preserve">a big gum ball</t>
   </si>
   <si>
     <t xml:space="preserve"> Remember, use your words.</t>
   </si>
   <si>
-    <t>Tell us what you see.</t>
-  </si>
-  <si>
-    <t>Which one?</t>
+    <t xml:space="preserve">Tell us what you see.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Which one?</t>
   </si>
   <si>
     <t xml:space="preserve"> You guess, tap the one you think it is.</t>
   </si>
   <si>
-    <t>Just touch it.</t>
-  </si>
-  <si>
-    <t>You're going to keep going.</t>
-  </si>
-  <si>
-    <t>Why did this box?</t>
-  </si>
-  <si>
-    <t>Because you got it right.</t>
+    <t xml:space="preserve">Just touch it.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You're going to keep going.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Why did this box?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Because you got it right.</t>
   </si>
   <si>
     <t xml:space="preserve"> No, that is not right.</t>
   </si>
   <si>
-    <t>It is right.</t>
+    <t xml:space="preserve">It is right.</t>
   </si>
   <si>
     <t xml:space="preserve"> Okay, you have the blocks.</t>
   </si>
   <si>
-    <t>So tell us.</t>
+    <t xml:space="preserve">So tell us.</t>
   </si>
   <si>
     <t xml:space="preserve"> [id87], we have to wait until [id86] tells us, okay?</t>
@@ -725,28 +741,28 @@
     <t xml:space="preserve"> Don't zoom in, okay?</t>
   </si>
   <si>
-    <t>Because that's not the game.</t>
-  </si>
-  <si>
-    <t>The game is for you to tell me what's in the black box.</t>
-  </si>
-  <si>
-    <t>I want to make it big.</t>
+    <t xml:space="preserve">Because that's not the game.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The game is for you to tell me what's in the black box.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I want to make it big.</t>
   </si>
   <si>
     <t xml:space="preserve"> Okay, you can make it a bigger, but tell us what's in the black box?</t>
   </si>
   <si>
-    <t>A snowskaker.</t>
+    <t xml:space="preserve">A snowskaker.</t>
   </si>
   <si>
     <t xml:space="preserve"> And [id86], you're going to guess.</t>
   </si>
   <si>
-    <t>I make it.</t>
-  </si>
-  <si>
-    <t>Awesome!</t>
+    <t xml:space="preserve">I make it.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Awesome!</t>
   </si>
   <si>
     <t xml:space="preserve"> Okay, wait, [id87], [id87], don't tap yet.</t>
@@ -755,13 +771,13 @@
     <t xml:space="preserve"> [id86], wait, don't tap yet.</t>
   </si>
   <si>
-    <t>I try it!</t>
-  </si>
-  <si>
-    <t>Try it!</t>
-  </si>
-  <si>
-    <t>[id87] do you still want to play the game?</t>
+    <t xml:space="preserve">I try it!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Try it!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[id87] do you still want to play the game?</t>
   </si>
   <si>
     <t xml:space="preserve"> If you don't want to play the game, we'll go back to the room.</t>
@@ -770,28 +786,28 @@
     <t xml:space="preserve"> But if you do want to play the game, and I need you to sit down, okay, because we're almost done.</t>
   </si>
   <si>
-    <t>But I'm all done.</t>
-  </si>
-  <si>
-    <t>You're all done?</t>
+    <t xml:space="preserve">But I'm all done.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You're all done?</t>
   </si>
   <si>
     <t xml:space="preserve"> Okay, we can go.</t>
   </si>
   <si>
-    <t>Do you want to go back?</t>
-  </si>
-  <si>
-    <t>You ready to go?</t>
+    <t xml:space="preserve">Do you want to go back?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You ready to go?</t>
   </si>
   <si>
     <t xml:space="preserve"> We're going to go back, okay?</t>
   </si>
   <si>
-    <t>because [id87] doesn't want to play anymore.</t>
-  </si>
-  <si>
-    <t>But good job.</t>
+    <t xml:space="preserve">because [id87] doesn't want to play anymore.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">But good job.</t>
   </si>
   <si>
     <t xml:space="preserve"> You did so great, [id86].</t>
@@ -800,18 +816,44 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="General"/>
+  </numFmts>
+  <fonts count="6">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -819,32 +861,66 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="3">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -855,94 +931,90 @@
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="FFFFFF"/>
+        <a:srgbClr val="ffffff"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="000000"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="FFFFFF"/>
+        <a:srgbClr val="ffffff"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4285F4"/>
+        <a:srgbClr val="4285f4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="EA4335"/>
+        <a:srgbClr val="ea4335"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="FBBC04"/>
+        <a:srgbClr val="fbbc04"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="34A853"/>
+        <a:srgbClr val="34a853"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="FF6D01"/>
+        <a:srgbClr val="ff6d01"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="46BDC6"/>
+        <a:srgbClr val="46bdc6"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="1155cc"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="1155cc"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Sheets">
       <a:majorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:cs typeface="Arial" pitchFamily="0" charset="1"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:cs typeface="Arial" pitchFamily="0" charset="1"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme>
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
                 <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
                 <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
                 <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
                 <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
                 <a:lumMod val="102000"/>
                 <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
                 <a:lumMod val="100000"/>
                 <a:shade val="100000"/>
               </a:schemeClr>
@@ -950,33 +1022,24 @@
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
                 <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
         <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
@@ -989,13 +1052,7 @@
           <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
@@ -1005,15 +1062,13 @@
         <a:solidFill>
           <a:schemeClr val="phClr">
             <a:tint val="95000"/>
-            <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="93000"/>
-                <a:satMod val="150000"/>
                 <a:shade val="98000"/>
                 <a:lumMod val="102000"/>
               </a:schemeClr>
@@ -1021,7 +1076,6 @@
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
                 <a:tint val="98000"/>
-                <a:satMod val="130000"/>
                 <a:shade val="90000"/>
                 <a:lumMod val="103000"/>
               </a:schemeClr>
@@ -1029,11 +1083,11 @@
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:shade val="63000"/>
-                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -1042,22 +1096,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:H269"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A218" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="G264" activeCellId="0" sqref="G264"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" min="3" max="3" width="32.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="32.38"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1083,12 +1139,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1180.0</v>
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>1180</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>8</v>
@@ -1097,12 +1153,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1">
-        <v>2240.0</v>
-      </c>
-      <c r="B3" s="1">
-        <v>5720.0</v>
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>2240</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>5720</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
@@ -1111,12 +1167,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1">
-        <v>6120.0</v>
-      </c>
-      <c r="B4" s="1">
-        <v>8240.0</v>
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>6120</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>8240</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>11</v>
@@ -1125,12 +1181,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1">
-        <v>8520.0</v>
-      </c>
-      <c r="B5" s="1">
-        <v>13620.0</v>
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>8520</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>13620</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>12</v>
@@ -1139,12 +1195,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1">
-        <v>14400.0</v>
-      </c>
-      <c r="B6" s="1">
-        <v>16040.0</v>
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>14400</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>16040</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>13</v>
@@ -1153,12 +1209,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1">
-        <v>16140.0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>16440.0</v>
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>16140</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>16440</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>14</v>
@@ -1167,12 +1223,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1">
-        <v>16880.0</v>
-      </c>
-      <c r="B8" s="1">
-        <v>17240.0</v>
+    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>16880</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>17240</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>15</v>
@@ -1181,12 +1237,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1">
-        <v>17240.0</v>
-      </c>
-      <c r="B9" s="1">
-        <v>18720.0</v>
+    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>17240</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>18720</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>16</v>
@@ -1195,12 +1251,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1">
-        <v>18920.0</v>
-      </c>
-      <c r="B10" s="1">
-        <v>19240.0</v>
+    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
+        <v>18920</v>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>19240</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>14</v>
@@ -1209,12 +1265,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1">
-        <v>19460.0</v>
-      </c>
-      <c r="B11" s="1">
-        <v>21080.0</v>
+    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
+        <v>19460</v>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>21080</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>17</v>
@@ -1223,12 +1279,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1">
-        <v>21320.0</v>
-      </c>
-      <c r="B12" s="1">
-        <v>23200.0</v>
+    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
+        <v>21320</v>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>23200</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>18</v>
@@ -1237,12 +1293,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1">
-        <v>24560.0</v>
-      </c>
-      <c r="B13" s="1">
-        <v>25940.0</v>
+    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
+        <v>24560</v>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>25940</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>19</v>
@@ -1251,12 +1307,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1">
-        <v>25940.0</v>
-      </c>
-      <c r="B14" s="1">
-        <v>29940.0</v>
+    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
+        <v>25940</v>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>29940</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>20</v>
@@ -1265,12 +1321,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1">
-        <v>29940.0</v>
-      </c>
-      <c r="B15" s="1">
-        <v>33940.0</v>
+    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="n">
+        <v>29940</v>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>33940</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>21</v>
@@ -1279,12 +1335,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="1">
-        <v>35940.0</v>
-      </c>
-      <c r="B16" s="1">
-        <v>38940.0</v>
+    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="n">
+        <v>35940</v>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>38940</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>22</v>
@@ -1293,12 +1349,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1">
-        <v>38940.0</v>
-      </c>
-      <c r="B17" s="1">
-        <v>40940.0</v>
+    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="n">
+        <v>38940</v>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>40940</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>23</v>
@@ -1307,12 +1363,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="1">
-        <v>40940.0</v>
-      </c>
-      <c r="B18" s="1">
-        <v>42940.0</v>
+    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="n">
+        <v>40940</v>
+      </c>
+      <c r="B18" s="1" t="n">
+        <v>42940</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>24</v>
@@ -1321,12 +1377,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="1">
-        <v>42940.0</v>
-      </c>
-      <c r="B19" s="1">
-        <v>43940.0</v>
+    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="n">
+        <v>42940</v>
+      </c>
+      <c r="B19" s="1" t="n">
+        <v>43940</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>25</v>
@@ -1335,12 +1391,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="1">
-        <v>43940.0</v>
-      </c>
-      <c r="B20" s="1">
-        <v>44940.0</v>
+    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="n">
+        <v>43940</v>
+      </c>
+      <c r="B20" s="1" t="n">
+        <v>44940</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>26</v>
@@ -1349,12 +1405,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="1">
-        <v>44940.0</v>
-      </c>
-      <c r="B21" s="1">
-        <v>45940.0</v>
+    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="n">
+        <v>44940</v>
+      </c>
+      <c r="B21" s="1" t="n">
+        <v>45940</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>27</v>
@@ -1363,12 +1419,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="1">
-        <v>45940.0</v>
-      </c>
-      <c r="B22" s="1">
-        <v>46940.0</v>
+    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="n">
+        <v>45940</v>
+      </c>
+      <c r="B22" s="1" t="n">
+        <v>46940</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>28</v>
@@ -1377,12 +1433,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="1">
-        <v>46940.0</v>
-      </c>
-      <c r="B23" s="1">
-        <v>47940.0</v>
+    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="n">
+        <v>46940</v>
+      </c>
+      <c r="B23" s="1" t="n">
+        <v>47940</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>29</v>
@@ -1391,12 +1447,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="1">
-        <v>47940.0</v>
-      </c>
-      <c r="B24" s="1">
-        <v>48940.0</v>
+    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="n">
+        <v>47940</v>
+      </c>
+      <c r="B24" s="1" t="n">
+        <v>48940</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>30</v>
@@ -1405,12 +1461,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="1">
-        <v>48940.0</v>
-      </c>
-      <c r="B25" s="1">
-        <v>53940.0</v>
+    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="n">
+        <v>48940</v>
+      </c>
+      <c r="B25" s="1" t="n">
+        <v>53940</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>31</v>
@@ -1419,12 +1475,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="1">
-        <v>53940.0</v>
-      </c>
-      <c r="B26" s="1">
-        <v>54940.0</v>
+    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="n">
+        <v>53940</v>
+      </c>
+      <c r="B26" s="1" t="n">
+        <v>54940</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>32</v>
@@ -1433,12 +1489,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="1">
-        <v>54940.0</v>
-      </c>
-      <c r="B27" s="1">
-        <v>62480.0</v>
+    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="n">
+        <v>54940</v>
+      </c>
+      <c r="B27" s="1" t="n">
+        <v>62480</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>33</v>
@@ -1447,12 +1503,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="1">
-        <v>62480.0</v>
-      </c>
-      <c r="B28" s="1">
-        <v>74540.0</v>
+    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="n">
+        <v>62480</v>
+      </c>
+      <c r="B28" s="1" t="n">
+        <v>74540</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>34</v>
@@ -1461,12 +1517,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="1">
-        <v>74540.0</v>
-      </c>
-      <c r="B29" s="1">
-        <v>78640.0</v>
+    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="n">
+        <v>74540</v>
+      </c>
+      <c r="B29" s="1" t="n">
+        <v>78640</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>35</v>
@@ -1475,12 +1531,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="1">
-        <v>78640.0</v>
-      </c>
-      <c r="B30" s="1">
-        <v>84920.0</v>
+    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="n">
+        <v>78640</v>
+      </c>
+      <c r="B30" s="1" t="n">
+        <v>84920</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>36</v>
@@ -1489,12 +1545,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="1">
-        <v>84920.0</v>
-      </c>
-      <c r="B31" s="1">
-        <v>86920.0</v>
+    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="n">
+        <v>84920</v>
+      </c>
+      <c r="B31" s="1" t="n">
+        <v>86920</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>37</v>
@@ -1503,12 +1559,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="1">
-        <v>86920.0</v>
-      </c>
-      <c r="B32" s="1">
-        <v>88920.0</v>
+    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="n">
+        <v>86920</v>
+      </c>
+      <c r="B32" s="1" t="n">
+        <v>88920</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>38</v>
@@ -1517,12 +1573,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="1">
-        <v>88920.0</v>
-      </c>
-      <c r="B33" s="1">
-        <v>89920.0</v>
+    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="n">
+        <v>88920</v>
+      </c>
+      <c r="B33" s="1" t="n">
+        <v>89920</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>39</v>
@@ -1531,12 +1587,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="1">
-        <v>89920.0</v>
-      </c>
-      <c r="B34" s="1">
-        <v>91920.0</v>
+    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="n">
+        <v>89920</v>
+      </c>
+      <c r="B34" s="1" t="n">
+        <v>91920</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>40</v>
@@ -1545,12 +1601,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="1">
-        <v>91920.0</v>
-      </c>
-      <c r="B35" s="1">
-        <v>92920.0</v>
+    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="n">
+        <v>91920</v>
+      </c>
+      <c r="B35" s="1" t="n">
+        <v>92920</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>41</v>
@@ -1559,12 +1615,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="1">
-        <v>92920.0</v>
-      </c>
-      <c r="B36" s="1">
-        <v>93920.0</v>
+    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="n">
+        <v>92920</v>
+      </c>
+      <c r="B36" s="1" t="n">
+        <v>93920</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>42</v>
@@ -1573,12 +1629,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="1">
-        <v>93920.0</v>
-      </c>
-      <c r="B37" s="1">
-        <v>94920.0</v>
+    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="n">
+        <v>93920</v>
+      </c>
+      <c r="B37" s="1" t="n">
+        <v>94920</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>43</v>
@@ -1587,12 +1643,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="1">
-        <v>94920.0</v>
-      </c>
-      <c r="B38" s="1">
-        <v>95920.0</v>
+    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="n">
+        <v>94920</v>
+      </c>
+      <c r="B38" s="1" t="n">
+        <v>95920</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>41</v>
@@ -1601,12 +1657,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="1">
-        <v>95920.0</v>
-      </c>
-      <c r="B39" s="1">
-        <v>96920.0</v>
+    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="n">
+        <v>95920</v>
+      </c>
+      <c r="B39" s="1" t="n">
+        <v>96920</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>44</v>
@@ -1615,12 +1671,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="1">
-        <v>96920.0</v>
-      </c>
-      <c r="B40" s="1">
-        <v>98920.0</v>
+    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="n">
+        <v>96920</v>
+      </c>
+      <c r="B40" s="1" t="n">
+        <v>98920</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>45</v>
@@ -1629,12 +1685,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="1">
-        <v>98920.0</v>
-      </c>
-      <c r="B41" s="1">
-        <v>99920.0</v>
+    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="n">
+        <v>98920</v>
+      </c>
+      <c r="B41" s="1" t="n">
+        <v>99920</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>46</v>
@@ -1643,12 +1699,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="1">
-        <v>99920.0</v>
-      </c>
-      <c r="B42" s="1">
-        <v>100920.0</v>
+    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="n">
+        <v>99920</v>
+      </c>
+      <c r="B42" s="1" t="n">
+        <v>100920</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>48</v>
@@ -1657,12 +1713,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="1">
-        <v>100920.0</v>
-      </c>
-      <c r="B43" s="1">
-        <v>102920.0</v>
+    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="n">
+        <v>100920</v>
+      </c>
+      <c r="B43" s="1" t="n">
+        <v>102920</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>49</v>
@@ -1671,12 +1727,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="1">
-        <v>102920.0</v>
-      </c>
-      <c r="B44" s="1">
-        <v>107920.0</v>
+    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="n">
+        <v>102920</v>
+      </c>
+      <c r="B44" s="1" t="n">
+        <v>107920</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>50</v>
@@ -1685,12 +1741,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="1">
-        <v>107920.0</v>
-      </c>
-      <c r="B45" s="1">
-        <v>108920.0</v>
+    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="n">
+        <v>107920</v>
+      </c>
+      <c r="B45" s="1" t="n">
+        <v>108920</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>51</v>
@@ -1699,12 +1755,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="1">
-        <v>108920.0</v>
-      </c>
-      <c r="B46" s="1">
-        <v>115220.0</v>
+    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="n">
+        <v>108920</v>
+      </c>
+      <c r="B46" s="1" t="n">
+        <v>115220</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>52</v>
@@ -1713,12 +1769,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="1">
-        <v>115220.0</v>
-      </c>
-      <c r="B47" s="1">
-        <v>120200.0</v>
+    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="n">
+        <v>115220</v>
+      </c>
+      <c r="B47" s="1" t="n">
+        <v>120200</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>53</v>
@@ -1727,12 +1783,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="1">
-        <v>120200.0</v>
-      </c>
-      <c r="B48" s="1">
-        <v>124640.0</v>
+    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="n">
+        <v>120200</v>
+      </c>
+      <c r="B48" s="1" t="n">
+        <v>124640</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>54</v>
@@ -1741,12 +1797,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="1">
-        <v>124640.0</v>
-      </c>
-      <c r="B49" s="1">
-        <v>128900.0</v>
+    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="n">
+        <v>124640</v>
+      </c>
+      <c r="B49" s="1" t="n">
+        <v>128900</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>55</v>
@@ -1755,12 +1811,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="1">
-        <v>128900.0</v>
-      </c>
-      <c r="B50" s="1">
-        <v>133040.0</v>
+    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="n">
+        <v>128900</v>
+      </c>
+      <c r="B50" s="1" t="n">
+        <v>133040</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>56</v>
@@ -1769,12 +1825,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="1">
-        <v>133040.0</v>
-      </c>
-      <c r="B51" s="1">
-        <v>137840.0</v>
+    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="n">
+        <v>133040</v>
+      </c>
+      <c r="B51" s="1" t="n">
+        <v>137840</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>57</v>
@@ -1783,12 +1839,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="1">
-        <v>137840.0</v>
-      </c>
-      <c r="B52" s="1">
-        <v>145420.0</v>
+    <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="n">
+        <v>137840</v>
+      </c>
+      <c r="B52" s="1" t="n">
+        <v>145420</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>58</v>
@@ -1797,12 +1853,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="1">
-        <v>146420.0</v>
-      </c>
-      <c r="B53" s="1">
-        <v>151540.0</v>
+    <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="n">
+        <v>146420</v>
+      </c>
+      <c r="B53" s="1" t="n">
+        <v>151540</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>59</v>
@@ -1811,12 +1867,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="1">
-        <v>152340.0</v>
-      </c>
-      <c r="B54" s="1">
-        <v>157060.0</v>
+    <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="1" t="n">
+        <v>152340</v>
+      </c>
+      <c r="B54" s="1" t="n">
+        <v>157060</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>60</v>
@@ -1825,12 +1881,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="1">
-        <v>157060.0</v>
-      </c>
-      <c r="B55" s="1">
-        <v>160000.0</v>
+    <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="1" t="n">
+        <v>157060</v>
+      </c>
+      <c r="B55" s="1" t="n">
+        <v>160000</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>61</v>
@@ -1839,12 +1895,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="1">
-        <v>160000.0</v>
-      </c>
-      <c r="B56" s="1">
-        <v>166740.0</v>
+    <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="1" t="n">
+        <v>160000</v>
+      </c>
+      <c r="B56" s="1" t="n">
+        <v>166740</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>62</v>
@@ -1853,12 +1909,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="1">
-        <v>166740.0</v>
-      </c>
-      <c r="B57" s="1">
-        <v>168240.0</v>
+    <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="1" t="n">
+        <v>166740</v>
+      </c>
+      <c r="B57" s="1" t="n">
+        <v>168240</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>63</v>
@@ -1867,12 +1923,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" s="1">
-        <v>168240.0</v>
-      </c>
-      <c r="B58" s="1">
-        <v>169740.0</v>
+    <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="1" t="n">
+        <v>168240</v>
+      </c>
+      <c r="B58" s="1" t="n">
+        <v>169740</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>64</v>
@@ -1881,12 +1937,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" s="1">
-        <v>169740.0</v>
-      </c>
-      <c r="B59" s="1">
-        <v>171740.0</v>
+    <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="1" t="n">
+        <v>169740</v>
+      </c>
+      <c r="B59" s="1" t="n">
+        <v>171740</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>65</v>
@@ -1895,12 +1951,12 @@
         <v>66</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" s="1">
-        <v>171740.0</v>
-      </c>
-      <c r="B60" s="1">
-        <v>175740.0</v>
+    <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="1" t="n">
+        <v>171740</v>
+      </c>
+      <c r="B60" s="1" t="n">
+        <v>175740</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>67</v>
@@ -1909,12 +1965,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" s="1">
-        <v>175740.0</v>
-      </c>
-      <c r="B61" s="1">
-        <v>178740.0</v>
+    <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="1" t="n">
+        <v>175740</v>
+      </c>
+      <c r="B61" s="1" t="n">
+        <v>178740</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>68</v>
@@ -1923,12 +1979,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" s="1">
-        <v>178740.0</v>
-      </c>
-      <c r="B62" s="1">
-        <v>180740.0</v>
+    <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="1" t="n">
+        <v>178740</v>
+      </c>
+      <c r="B62" s="1" t="n">
+        <v>180740</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>69</v>
@@ -1937,12 +1993,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" s="1">
-        <v>180740.0</v>
-      </c>
-      <c r="B63" s="1">
-        <v>183740.0</v>
+    <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="1" t="n">
+        <v>180740</v>
+      </c>
+      <c r="B63" s="1" t="n">
+        <v>183740</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>70</v>
@@ -1951,12 +2007,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" s="1">
-        <v>183740.0</v>
-      </c>
-      <c r="B64" s="1">
-        <v>184740.0</v>
+    <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="1" t="n">
+        <v>183740</v>
+      </c>
+      <c r="B64" s="1" t="n">
+        <v>184740</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>44</v>
@@ -1965,12 +2021,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" s="1">
-        <v>184740.0</v>
-      </c>
-      <c r="B65" s="1">
-        <v>187740.0</v>
+    <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="1" t="n">
+        <v>184740</v>
+      </c>
+      <c r="B65" s="1" t="n">
+        <v>187740</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>71</v>
@@ -1979,12 +2035,12 @@
         <v>66</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" s="1">
-        <v>187740.0</v>
-      </c>
-      <c r="B66" s="1">
-        <v>188740.0</v>
+    <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="1" t="n">
+        <v>187740</v>
+      </c>
+      <c r="B66" s="1" t="n">
+        <v>188740</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>72</v>
@@ -1993,12 +2049,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" s="1">
-        <v>188740.0</v>
-      </c>
-      <c r="B67" s="1">
-        <v>190500.0</v>
+    <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="1" t="n">
+        <v>188740</v>
+      </c>
+      <c r="B67" s="1" t="n">
+        <v>190500</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>73</v>
@@ -2007,12 +2063,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" s="1">
-        <v>190500.0</v>
-      </c>
-      <c r="B68" s="1">
-        <v>192240.0</v>
+    <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="1" t="n">
+        <v>190500</v>
+      </c>
+      <c r="B68" s="1" t="n">
+        <v>192240</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>74</v>
@@ -2021,12 +2077,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" s="1">
-        <v>193080.0</v>
-      </c>
-      <c r="B69" s="1">
-        <v>193640.0</v>
+    <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="1" t="n">
+        <v>193080</v>
+      </c>
+      <c r="B69" s="1" t="n">
+        <v>193640</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>43</v>
@@ -2035,12 +2091,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" s="1">
-        <v>193940.0</v>
-      </c>
-      <c r="B70" s="1">
-        <v>195680.0</v>
+    <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="1" t="n">
+        <v>193940</v>
+      </c>
+      <c r="B70" s="1" t="n">
+        <v>195680</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>75</v>
@@ -2049,12 +2105,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" s="1">
-        <v>196360.0</v>
-      </c>
-      <c r="B71" s="1">
-        <v>196740.0</v>
+    <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="1" t="n">
+        <v>196360</v>
+      </c>
+      <c r="B71" s="1" t="n">
+        <v>196740</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>76</v>
@@ -2063,12 +2119,12 @@
         <v>66</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" s="1">
-        <v>197100.0</v>
-      </c>
-      <c r="B72" s="1">
-        <v>200820.0</v>
+    <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="1" t="n">
+        <v>197100</v>
+      </c>
+      <c r="B72" s="1" t="n">
+        <v>200820</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>77</v>
@@ -2077,12 +2133,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" s="1">
-        <v>201000.0</v>
-      </c>
-      <c r="B73" s="1">
-        <v>203280.0</v>
+    <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="1" t="n">
+        <v>201000</v>
+      </c>
+      <c r="B73" s="1" t="n">
+        <v>203280</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>78</v>
@@ -2091,12 +2147,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" s="1">
-        <v>201000.0</v>
-      </c>
-      <c r="B74" s="1">
-        <v>203280.0</v>
+    <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="1" t="n">
+        <v>201000</v>
+      </c>
+      <c r="B74" s="1" t="n">
+        <v>203280</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>79</v>
@@ -2104,8 +2160,8 @@
       <c r="D74" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E74" s="1">
-        <v>0.0</v>
+      <c r="E74" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>80</v>
@@ -2114,12 +2170,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" s="1">
-        <v>204080.0</v>
-      </c>
-      <c r="B75" s="1">
-        <v>208140.0</v>
+    <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="1" t="n">
+        <v>204080</v>
+      </c>
+      <c r="B75" s="1" t="n">
+        <v>208140</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>82</v>
@@ -2128,12 +2184,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" s="1">
-        <v>204080.0</v>
-      </c>
-      <c r="B76" s="1">
-        <v>208140.0</v>
+    <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="1" t="n">
+        <v>204080</v>
+      </c>
+      <c r="B76" s="1" t="n">
+        <v>208140</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>79</v>
@@ -2144,16 +2200,14 @@
       <c r="F76" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="H76" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1">
-        <v>209400.0</v>
-      </c>
-      <c r="B77" s="1">
-        <v>213580.0</v>
+      <c r="H76" s="1"/>
+    </row>
+    <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="1" t="n">
+        <v>209400</v>
+      </c>
+      <c r="B77" s="1" t="n">
+        <v>213580</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>83</v>
@@ -2162,12 +2216,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" s="1">
-        <v>209400.0</v>
-      </c>
-      <c r="B78" s="1">
-        <v>213580.0</v>
+    <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="1" t="n">
+        <v>209400</v>
+      </c>
+      <c r="B78" s="1" t="n">
+        <v>213580</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>84</v>
@@ -2178,16 +2232,14 @@
       <c r="F78" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="H78" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="1">
-        <v>213580.0</v>
-      </c>
-      <c r="B79" s="1">
-        <v>228920.0</v>
+      <c r="H78" s="1"/>
+    </row>
+    <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="1" t="n">
+        <v>213580</v>
+      </c>
+      <c r="B79" s="1" t="n">
+        <v>228920</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>85</v>
@@ -2196,12 +2248,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" s="1">
-        <v>230020.0</v>
-      </c>
-      <c r="B80" s="1">
-        <v>234020.0</v>
+    <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="1" t="n">
+        <v>230020</v>
+      </c>
+      <c r="B80" s="1" t="n">
+        <v>234020</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>86</v>
@@ -2209,8 +2261,8 @@
       <c r="D80" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E80" s="1">
-        <v>1.0</v>
+      <c r="E80" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>80</v>
@@ -2219,12 +2271,12 @@
         <v>87</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" s="1">
-        <v>230020.0</v>
-      </c>
-      <c r="B81" s="1">
-        <v>234020.0</v>
+    <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="1" t="n">
+        <v>230020</v>
+      </c>
+      <c r="B81" s="1" t="n">
+        <v>234020</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>88</v>
@@ -2236,12 +2288,12 @@
         <v>89</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" s="1">
-        <v>234260.0</v>
-      </c>
-      <c r="B82" s="1">
-        <v>239340.0</v>
+    <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="1" t="n">
+        <v>234260</v>
+      </c>
+      <c r="B82" s="1" t="n">
+        <v>239340</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>90</v>
@@ -2250,12 +2302,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" s="1">
-        <v>239340.0</v>
-      </c>
-      <c r="B83" s="1">
-        <v>246220.0</v>
+    <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="1" t="n">
+        <v>239340</v>
+      </c>
+      <c r="B83" s="1" t="n">
+        <v>246220</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>91</v>
@@ -2264,12 +2316,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" s="1">
-        <v>239340.0</v>
-      </c>
-      <c r="B84" s="1">
-        <v>246220.0</v>
+    <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="1" t="n">
+        <v>239340</v>
+      </c>
+      <c r="B84" s="1" t="n">
+        <v>246220</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>92</v>
@@ -2284,12 +2336,12 @@
         <v>87</v>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" s="1">
-        <v>246220.0</v>
-      </c>
-      <c r="B85" s="1">
-        <v>250780.0</v>
+    <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="1" t="n">
+        <v>246220</v>
+      </c>
+      <c r="B85" s="1" t="n">
+        <v>250780</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>93</v>
@@ -2298,12 +2350,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" s="1">
-        <v>246220.0</v>
-      </c>
-      <c r="B86" s="1">
-        <v>250780.0</v>
+    <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="1" t="n">
+        <v>246220</v>
+      </c>
+      <c r="B86" s="1" t="n">
+        <v>250780</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>94</v>
@@ -2311,8 +2363,8 @@
       <c r="D86" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E86" s="1">
-        <v>2.0</v>
+      <c r="E86" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>80</v>
@@ -2321,12 +2373,12 @@
         <v>95</v>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" s="1">
-        <v>250780.0</v>
-      </c>
-      <c r="B87" s="1">
-        <v>257460.0</v>
+    <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="1" t="n">
+        <v>250780</v>
+      </c>
+      <c r="B87" s="1" t="n">
+        <v>257460</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>96</v>
@@ -2335,12 +2387,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" s="1">
-        <v>250780.0</v>
-      </c>
-      <c r="B88" s="1">
-        <v>257460.0</v>
+    <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="1" t="n">
+        <v>250780</v>
+      </c>
+      <c r="B88" s="1" t="n">
+        <v>257460</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>97</v>
@@ -2351,16 +2403,14 @@
       <c r="F88" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="H88" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="1">
-        <v>250780.0</v>
-      </c>
-      <c r="B89" s="1">
-        <v>257460.0</v>
+      <c r="H88" s="1"/>
+    </row>
+    <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="1" t="n">
+        <v>250780</v>
+      </c>
+      <c r="B89" s="1" t="n">
+        <v>257460</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>98</v>
@@ -2369,12 +2419,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" s="1">
-        <v>257460.0</v>
-      </c>
-      <c r="B90" s="1">
-        <v>264780.0</v>
+    <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="1" t="n">
+        <v>257460</v>
+      </c>
+      <c r="B90" s="1" t="n">
+        <v>264780</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>99</v>
@@ -2383,12 +2433,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" s="1">
-        <v>257460.0</v>
-      </c>
-      <c r="B91" s="1">
-        <v>264780.0</v>
+    <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="1" t="n">
+        <v>257460</v>
+      </c>
+      <c r="B91" s="1" t="n">
+        <v>264780</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>100</v>
@@ -2396,8 +2446,8 @@
       <c r="D91" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E91" s="1">
-        <v>3.0</v>
+      <c r="E91" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="F91" s="1" t="s">
         <v>80</v>
@@ -2406,12 +2456,12 @@
         <v>101</v>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" s="1">
-        <v>264780.0</v>
-      </c>
-      <c r="B92" s="1">
-        <v>269320.0</v>
+    <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="1" t="n">
+        <v>264780</v>
+      </c>
+      <c r="B92" s="1" t="n">
+        <v>269320</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>102</v>
@@ -2420,12 +2470,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" s="1">
-        <v>269320.0</v>
-      </c>
-      <c r="B93" s="1">
-        <v>270660.0</v>
+    <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="1" t="n">
+        <v>269320</v>
+      </c>
+      <c r="B93" s="1" t="n">
+        <v>270660</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>103</v>
@@ -2434,12 +2484,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" s="1">
-        <v>271160.0</v>
-      </c>
-      <c r="B94" s="1">
-        <v>272800.0</v>
+    <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="1" t="n">
+        <v>271160</v>
+      </c>
+      <c r="B94" s="1" t="n">
+        <v>272800</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>104</v>
@@ -2454,12 +2504,12 @@
         <v>104</v>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" s="1">
-        <v>271160.0</v>
-      </c>
-      <c r="B95" s="1">
-        <v>272800.0</v>
+    <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="1" t="n">
+        <v>271160</v>
+      </c>
+      <c r="B95" s="1" t="n">
+        <v>272800</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>105</v>
@@ -2468,12 +2518,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" s="1">
-        <v>273640.0</v>
-      </c>
-      <c r="B96" s="1">
-        <v>275160.0</v>
+    <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="1" t="n">
+        <v>273640</v>
+      </c>
+      <c r="B96" s="1" t="n">
+        <v>275160</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>106</v>
@@ -2482,12 +2532,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" s="1">
-        <v>278520.0</v>
-      </c>
-      <c r="B97" s="1">
-        <v>280400.0</v>
+    <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="1" t="n">
+        <v>278520</v>
+      </c>
+      <c r="B97" s="1" t="n">
+        <v>280400</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>107</v>
@@ -2496,12 +2546,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" s="1">
-        <v>281600.0</v>
-      </c>
-      <c r="B98" s="1">
-        <v>283040.0</v>
+    <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="1" t="n">
+        <v>281600</v>
+      </c>
+      <c r="B98" s="1" t="n">
+        <v>283040</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>108</v>
@@ -2510,12 +2560,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" s="1">
-        <v>283340.0</v>
-      </c>
-      <c r="B99" s="1">
-        <v>284340.0</v>
+    <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="1" t="n">
+        <v>283340</v>
+      </c>
+      <c r="B99" s="1" t="n">
+        <v>284340</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>109</v>
@@ -2524,12 +2574,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" s="1">
-        <v>284900.0</v>
-      </c>
-      <c r="B100" s="1">
-        <v>285100.0</v>
+    <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="1" t="n">
+        <v>284900</v>
+      </c>
+      <c r="B100" s="1" t="n">
+        <v>285100</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>110</v>
@@ -2538,12 +2588,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" s="1">
-        <v>286360.0</v>
-      </c>
-      <c r="B101" s="1">
-        <v>288600.0</v>
+    <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="1" t="n">
+        <v>286360</v>
+      </c>
+      <c r="B101" s="1" t="n">
+        <v>288600</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>111</v>
@@ -2552,12 +2602,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" s="1">
-        <v>288840.0</v>
-      </c>
-      <c r="B102" s="1">
-        <v>290840.0</v>
+    <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="1" t="n">
+        <v>288840</v>
+      </c>
+      <c r="B102" s="1" t="n">
+        <v>290840</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>112</v>
@@ -2566,12 +2616,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="103">
-      <c r="A103" s="1">
-        <v>291600.0</v>
-      </c>
-      <c r="B103" s="1">
-        <v>294220.0</v>
+    <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="1" t="n">
+        <v>291600</v>
+      </c>
+      <c r="B103" s="1" t="n">
+        <v>294220</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>113</v>
@@ -2579,19 +2629,19 @@
       <c r="D103" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E103" s="1">
-        <v>4.0</v>
+      <c r="E103" s="1" t="n">
+        <v>4</v>
       </c>
       <c r="F103" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="104">
-      <c r="A104" s="1">
-        <v>294680.0</v>
-      </c>
-      <c r="B104" s="1">
-        <v>295640.0</v>
+    <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="1" t="n">
+        <v>294680</v>
+      </c>
+      <c r="B104" s="1" t="n">
+        <v>295640</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>114</v>
@@ -2600,12 +2650,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="105">
-      <c r="A105" s="1">
-        <v>296480.0</v>
-      </c>
-      <c r="B105" s="1">
-        <v>297480.0</v>
+    <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="1" t="n">
+        <v>296480</v>
+      </c>
+      <c r="B105" s="1" t="n">
+        <v>297480</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>115</v>
@@ -2620,12 +2670,12 @@
         <v>116</v>
       </c>
     </row>
-    <row r="106">
-      <c r="A106" s="1">
-        <v>297480.0</v>
-      </c>
-      <c r="B106" s="1">
-        <v>298480.0</v>
+    <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="1" t="n">
+        <v>297480</v>
+      </c>
+      <c r="B106" s="1" t="n">
+        <v>298480</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>117</v>
@@ -2636,16 +2686,14 @@
       <c r="F106" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="H106" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="1">
-        <v>298480.0</v>
-      </c>
-      <c r="B107" s="1">
-        <v>302480.0</v>
+      <c r="H106" s="1"/>
+    </row>
+    <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="1" t="n">
+        <v>298480</v>
+      </c>
+      <c r="B107" s="1" t="n">
+        <v>302480</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>118</v>
@@ -2656,13 +2704,16 @@
       <c r="F107" s="1" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="1">
-        <v>302480.0</v>
-      </c>
-      <c r="B108" s="1">
-        <v>303480.0</v>
+      <c r="H107" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="1" t="n">
+        <v>302480</v>
+      </c>
+      <c r="B108" s="1" t="n">
+        <v>303480</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>14</v>
@@ -2671,29 +2722,29 @@
         <v>9</v>
       </c>
     </row>
-    <row r="109">
-      <c r="A109" s="1">
-        <v>303480.0</v>
-      </c>
-      <c r="B109" s="1">
-        <v>306480.0</v>
+    <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="1" t="n">
+        <v>303480</v>
+      </c>
+      <c r="B109" s="1" t="n">
+        <v>306480</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="110">
-      <c r="A110" s="1">
-        <v>306480.0</v>
-      </c>
-      <c r="B110" s="1">
-        <v>307480.0</v>
+    <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="1" t="n">
+        <v>306480</v>
+      </c>
+      <c r="B110" s="1" t="n">
+        <v>307480</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>66</v>
@@ -2702,105 +2753,105 @@
         <v>80</v>
       </c>
     </row>
-    <row r="111">
-      <c r="A111" s="1">
-        <v>307480.0</v>
-      </c>
-      <c r="B111" s="1">
-        <v>308480.0</v>
+    <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="1" t="n">
+        <v>307480</v>
+      </c>
+      <c r="B111" s="1" t="n">
+        <v>308480</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="112">
-      <c r="A112" s="1">
-        <v>308480.0</v>
-      </c>
-      <c r="B112" s="1">
-        <v>309480.0</v>
+    <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="1" t="n">
+        <v>308480</v>
+      </c>
+      <c r="B112" s="1" t="n">
+        <v>309480</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="113">
-      <c r="A113" s="1">
-        <v>309480.0</v>
-      </c>
-      <c r="B113" s="1">
-        <v>311480.0</v>
+    <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="1" t="n">
+        <v>309480</v>
+      </c>
+      <c r="B113" s="1" t="n">
+        <v>311480</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="114">
-      <c r="A114" s="1">
-        <v>311480.0</v>
-      </c>
-      <c r="B114" s="1">
-        <v>313480.0</v>
+    <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="1" t="n">
+        <v>311480</v>
+      </c>
+      <c r="B114" s="1" t="n">
+        <v>313480</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D114" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="115">
-      <c r="A115" s="1">
-        <v>313480.0</v>
-      </c>
-      <c r="B115" s="1">
-        <v>314480.0</v>
+    <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="1" t="n">
+        <v>313480</v>
+      </c>
+      <c r="B115" s="1" t="n">
+        <v>314480</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D115" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="116">
-      <c r="A116" s="1">
-        <v>314480.0</v>
-      </c>
-      <c r="B116" s="1">
-        <v>315480.0</v>
+    <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="1" t="n">
+        <v>314480</v>
+      </c>
+      <c r="B116" s="1" t="n">
+        <v>315480</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D116" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E116" s="1">
-        <v>5.0</v>
+      <c r="E116" s="1" t="n">
+        <v>5</v>
       </c>
       <c r="F116" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="117">
-      <c r="A117" s="1">
-        <v>315480.0</v>
-      </c>
-      <c r="B117" s="1">
-        <v>316480.0</v>
+    <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="1" t="n">
+        <v>315480</v>
+      </c>
+      <c r="B117" s="1" t="n">
+        <v>316480</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D117" s="1" t="s">
         <v>66</v>
@@ -2809,29 +2860,29 @@
         <v>89</v>
       </c>
     </row>
-    <row r="118">
-      <c r="A118" s="1">
-        <v>316480.0</v>
-      </c>
-      <c r="B118" s="1">
-        <v>317480.0</v>
+    <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="1" t="n">
+        <v>316480</v>
+      </c>
+      <c r="B118" s="1" t="n">
+        <v>317480</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D118" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="119">
-      <c r="A119" s="1">
-        <v>317480.0</v>
-      </c>
-      <c r="B119" s="1">
-        <v>320480.0</v>
+    <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="1" t="n">
+        <v>317480</v>
+      </c>
+      <c r="B119" s="1" t="n">
+        <v>320480</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D119" s="1" t="s">
         <v>47</v>
@@ -2840,32 +2891,32 @@
         <v>80</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1">
-        <v>320480.0</v>
-      </c>
-      <c r="B120" s="1">
-        <v>323480.0</v>
+        <v>131</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="1" t="n">
+        <v>320480</v>
+      </c>
+      <c r="B120" s="1" t="n">
+        <v>323480</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D120" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="121">
-      <c r="A121" s="1">
-        <v>323480.0</v>
-      </c>
-      <c r="B121" s="1">
-        <v>324480.0</v>
+    <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="1" t="n">
+        <v>323480</v>
+      </c>
+      <c r="B121" s="1" t="n">
+        <v>324480</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D121" s="1" t="s">
         <v>66</v>
@@ -2874,94 +2925,94 @@
         <v>89</v>
       </c>
     </row>
-    <row r="122">
-      <c r="A122" s="1">
-        <v>324480.0</v>
-      </c>
-      <c r="B122" s="1">
-        <v>326480.0</v>
+    <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="1" t="n">
+        <v>324480</v>
+      </c>
+      <c r="B122" s="1" t="n">
+        <v>326480</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D122" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="123">
-      <c r="A123" s="1">
-        <v>326480.0</v>
-      </c>
-      <c r="B123" s="1">
-        <v>328480.0</v>
+    <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="1" t="n">
+        <v>326480</v>
+      </c>
+      <c r="B123" s="1" t="n">
+        <v>328480</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D123" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="124">
-      <c r="A124" s="1">
-        <v>330480.0</v>
-      </c>
-      <c r="B124" s="1">
-        <v>333480.0</v>
+    <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="1" t="n">
+        <v>330480</v>
+      </c>
+      <c r="B124" s="1" t="n">
+        <v>333480</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D124" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="125">
-      <c r="A125" s="1">
-        <v>333480.0</v>
-      </c>
-      <c r="B125" s="1">
-        <v>338480.0</v>
+    <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="1" t="n">
+        <v>333480</v>
+      </c>
+      <c r="B125" s="1" t="n">
+        <v>338480</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D125" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E125" s="1">
-        <v>6.0</v>
+      <c r="E125" s="1" t="n">
+        <v>6</v>
       </c>
       <c r="F125" s="1" t="s">
         <v>80</v>
       </c>
       <c r="H125" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1">
-        <v>338480.0</v>
-      </c>
-      <c r="B126" s="1">
-        <v>339480.0</v>
+        <v>137</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="1" t="n">
+        <v>338480</v>
+      </c>
+      <c r="B126" s="1" t="n">
+        <v>339480</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D126" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="127">
-      <c r="A127" s="1">
-        <v>339480.0</v>
-      </c>
-      <c r="B127" s="1">
-        <v>341480.0</v>
+    <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="1" t="n">
+        <v>339480</v>
+      </c>
+      <c r="B127" s="1" t="n">
+        <v>341480</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D127" s="1" t="s">
         <v>47</v>
@@ -2970,29 +3021,29 @@
         <v>89</v>
       </c>
     </row>
-    <row r="128">
-      <c r="A128" s="1">
-        <v>341480.0</v>
-      </c>
-      <c r="B128" s="1">
-        <v>344480.0</v>
+    <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="1" t="n">
+        <v>341480</v>
+      </c>
+      <c r="B128" s="1" t="n">
+        <v>344480</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D128" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="129">
-      <c r="A129" s="1">
-        <v>344480.0</v>
-      </c>
-      <c r="B129" s="1">
-        <v>347480.0</v>
+    <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="1" t="n">
+        <v>344480</v>
+      </c>
+      <c r="B129" s="1" t="n">
+        <v>347480</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D129" s="1" t="s">
         <v>66</v>
@@ -3000,33 +3051,31 @@
       <c r="F129" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="H129" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1">
-        <v>347480.0</v>
-      </c>
-      <c r="B130" s="1">
-        <v>349480.0</v>
+      <c r="H129" s="1"/>
+    </row>
+    <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="1" t="n">
+        <v>347480</v>
+      </c>
+      <c r="B130" s="1" t="n">
+        <v>349480</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D130" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="131">
-      <c r="A131" s="1">
-        <v>349480.0</v>
-      </c>
-      <c r="B131" s="1">
-        <v>350480.0</v>
+    <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="1" t="n">
+        <v>349480</v>
+      </c>
+      <c r="B131" s="1" t="n">
+        <v>350480</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D131" s="1" t="s">
         <v>47</v>
@@ -3035,71 +3084,71 @@
         <v>89</v>
       </c>
     </row>
-    <row r="132">
-      <c r="A132" s="1">
-        <v>350480.0</v>
-      </c>
-      <c r="B132" s="1">
-        <v>351480.0</v>
+    <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="1" t="n">
+        <v>350480</v>
+      </c>
+      <c r="B132" s="1" t="n">
+        <v>351480</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D132" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="133">
-      <c r="A133" s="1">
-        <v>351480.0</v>
-      </c>
-      <c r="B133" s="1">
-        <v>353480.0</v>
+    <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="1" t="n">
+        <v>351480</v>
+      </c>
+      <c r="B133" s="1" t="n">
+        <v>353480</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D133" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="134">
-      <c r="A134" s="1">
-        <v>353480.0</v>
-      </c>
-      <c r="B134" s="1">
-        <v>354480.0</v>
+    <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="1" t="n">
+        <v>353480</v>
+      </c>
+      <c r="B134" s="1" t="n">
+        <v>354480</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D134" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="135">
-      <c r="A135" s="1">
-        <v>354480.0</v>
-      </c>
-      <c r="B135" s="1">
-        <v>358080.0</v>
+    <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="1" t="n">
+        <v>354480</v>
+      </c>
+      <c r="B135" s="1" t="n">
+        <v>358080</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D135" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="136">
-      <c r="A136" s="1">
-        <v>360080.0</v>
-      </c>
-      <c r="B136" s="1">
-        <v>360720.0</v>
+    <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="1" t="n">
+        <v>360080</v>
+      </c>
+      <c r="B136" s="1" t="n">
+        <v>360720</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D136" s="1" t="s">
         <v>66</v>
@@ -3108,15 +3157,15 @@
         <v>80</v>
       </c>
     </row>
-    <row r="137">
-      <c r="A137" s="1">
-        <v>361800.0</v>
-      </c>
-      <c r="B137" s="1">
-        <v>365160.0</v>
+    <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="1" t="n">
+        <v>361800</v>
+      </c>
+      <c r="B137" s="1" t="n">
+        <v>365160</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D137" s="1" t="s">
         <v>66</v>
@@ -3124,16 +3173,14 @@
       <c r="F137" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="H137" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1">
-        <v>365480.0</v>
-      </c>
-      <c r="B138" s="1">
-        <v>365760.0</v>
+      <c r="H137" s="1"/>
+    </row>
+    <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="1" t="n">
+        <v>365480</v>
+      </c>
+      <c r="B138" s="1" t="n">
+        <v>365760</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>44</v>
@@ -3142,43 +3189,43 @@
         <v>9</v>
       </c>
     </row>
-    <row r="139">
-      <c r="A139" s="1">
-        <v>366420.0</v>
-      </c>
-      <c r="B139" s="1">
-        <v>367660.0</v>
+    <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="1" t="n">
+        <v>366420</v>
+      </c>
+      <c r="B139" s="1" t="n">
+        <v>367660</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D139" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="140">
-      <c r="A140" s="1">
-        <v>368240.0</v>
-      </c>
-      <c r="B140" s="1">
-        <v>369080.0</v>
+    <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="1" t="n">
+        <v>368240</v>
+      </c>
+      <c r="B140" s="1" t="n">
+        <v>369080</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D140" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="141">
-      <c r="A141" s="1">
-        <v>369080.0</v>
-      </c>
-      <c r="B141" s="1">
-        <v>370280.0</v>
+    <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="1" t="n">
+        <v>369080</v>
+      </c>
+      <c r="B141" s="1" t="n">
+        <v>370280</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D141" s="1" t="s">
         <v>66</v>
@@ -3186,84 +3233,82 @@
       <c r="F141" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="H141" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1">
-        <v>371480.0</v>
-      </c>
-      <c r="B142" s="1">
-        <v>372680.0</v>
+      <c r="H141" s="1"/>
+    </row>
+    <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="1" t="n">
+        <v>371480</v>
+      </c>
+      <c r="B142" s="1" t="n">
+        <v>372680</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D142" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="143">
-      <c r="A143" s="1">
-        <v>373000.0</v>
-      </c>
-      <c r="B143" s="1">
-        <v>374160.0</v>
+    <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="1" t="n">
+        <v>373000</v>
+      </c>
+      <c r="B143" s="1" t="n">
+        <v>374160</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D143" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="144">
-      <c r="A144" s="1">
-        <v>374560.0</v>
-      </c>
-      <c r="B144" s="1">
-        <v>378440.0</v>
+    <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="1" t="n">
+        <v>374560</v>
+      </c>
+      <c r="B144" s="1" t="n">
+        <v>378440</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D144" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="145">
-      <c r="A145" s="1">
-        <v>378440.0</v>
-      </c>
-      <c r="B145" s="1">
-        <v>380160.0</v>
+    <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="1" t="n">
+        <v>378440</v>
+      </c>
+      <c r="B145" s="1" t="n">
+        <v>380160</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D145" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E145" s="1">
-        <v>7.0</v>
+      <c r="E145" s="1" t="n">
+        <v>7</v>
       </c>
       <c r="F145" s="1" t="s">
         <v>80</v>
       </c>
       <c r="H145" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1">
-        <v>381080.0</v>
-      </c>
-      <c r="B146" s="1">
-        <v>383400.0</v>
+        <v>156</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="1" t="n">
+        <v>381080</v>
+      </c>
+      <c r="B146" s="1" t="n">
+        <v>383400</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D146" s="1" t="s">
         <v>47</v>
@@ -3272,32 +3317,32 @@
         <v>80</v>
       </c>
       <c r="H146" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1">
-        <v>383400.0</v>
-      </c>
-      <c r="B147" s="1">
-        <v>384400.0</v>
+        <v>158</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="1" t="n">
+        <v>383400</v>
+      </c>
+      <c r="B147" s="1" t="n">
+        <v>384400</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D147" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="148">
-      <c r="A148" s="1">
-        <v>384400.0</v>
-      </c>
-      <c r="B148" s="1">
-        <v>386400.0</v>
+    <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="1" t="n">
+        <v>384400</v>
+      </c>
+      <c r="B148" s="1" t="n">
+        <v>386400</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D148" s="1" t="s">
         <v>66</v>
@@ -3309,15 +3354,15 @@
         <v>116</v>
       </c>
     </row>
-    <row r="149">
-      <c r="A149" s="1">
-        <v>386400.0</v>
-      </c>
-      <c r="B149" s="1">
-        <v>389400.0</v>
+    <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="1" t="n">
+        <v>386400</v>
+      </c>
+      <c r="B149" s="1" t="n">
+        <v>389400</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D149" s="1" t="s">
         <v>66</v>
@@ -3326,40 +3371,40 @@
         <v>89</v>
       </c>
     </row>
-    <row r="150">
-      <c r="A150" s="1">
-        <v>389400.0</v>
-      </c>
-      <c r="B150" s="1">
-        <v>394400.0</v>
+    <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="1" t="n">
+        <v>389400</v>
+      </c>
+      <c r="B150" s="1" t="n">
+        <v>394400</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D150" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="151">
-      <c r="A151" s="1">
-        <v>394400.0</v>
-      </c>
-      <c r="B151" s="1">
-        <v>395400.0</v>
+    <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="1" t="n">
+        <v>394400</v>
+      </c>
+      <c r="B151" s="1" t="n">
+        <v>395400</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D151" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="152">
-      <c r="A152" s="1">
-        <v>395400.0</v>
-      </c>
-      <c r="B152" s="1">
-        <v>396400.0</v>
+    <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="1" t="n">
+        <v>395400</v>
+      </c>
+      <c r="B152" s="1" t="n">
+        <v>396400</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>44</v>
@@ -3368,68 +3413,68 @@
         <v>9</v>
       </c>
     </row>
-    <row r="153">
-      <c r="A153" s="1">
-        <v>396400.0</v>
-      </c>
-      <c r="B153" s="1">
-        <v>398400.0</v>
+    <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="1" t="n">
+        <v>396400</v>
+      </c>
+      <c r="B153" s="1" t="n">
+        <v>398400</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D153" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="154">
-      <c r="A154" s="1">
-        <v>398400.0</v>
-      </c>
-      <c r="B154" s="1">
-        <v>399400.0</v>
+    <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="1" t="n">
+        <v>398400</v>
+      </c>
+      <c r="B154" s="1" t="n">
+        <v>399400</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D154" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="155">
-      <c r="A155" s="1">
-        <v>399400.0</v>
-      </c>
-      <c r="B155" s="1">
-        <v>402400.0</v>
+    <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="1" t="n">
+        <v>399400</v>
+      </c>
+      <c r="B155" s="1" t="n">
+        <v>402400</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D155" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="156">
-      <c r="A156" s="1">
-        <v>402400.0</v>
-      </c>
-      <c r="B156" s="1">
-        <v>403400.0</v>
+    <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="1" t="n">
+        <v>402400</v>
+      </c>
+      <c r="B156" s="1" t="n">
+        <v>403400</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D156" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="157">
-      <c r="A157" s="1">
-        <v>403400.0</v>
-      </c>
-      <c r="B157" s="1">
-        <v>405400.0</v>
+    <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="1" t="n">
+        <v>403400</v>
+      </c>
+      <c r="B157" s="1" t="n">
+        <v>405400</v>
       </c>
       <c r="C157" s="1" t="s">
         <v>43</v>
@@ -3438,29 +3483,29 @@
         <v>9</v>
       </c>
     </row>
-    <row r="158">
-      <c r="A158" s="1">
-        <v>405400.0</v>
-      </c>
-      <c r="B158" s="1">
-        <v>406400.0</v>
+    <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="1" t="n">
+        <v>405400</v>
+      </c>
+      <c r="B158" s="1" t="n">
+        <v>406400</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D158" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="159">
-      <c r="A159" s="1">
-        <v>406400.0</v>
-      </c>
-      <c r="B159" s="1">
-        <v>408400.0</v>
+    <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="1" t="n">
+        <v>406400</v>
+      </c>
+      <c r="B159" s="1" t="n">
+        <v>408400</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D159" s="1" t="s">
         <v>47</v>
@@ -3469,12 +3514,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="160">
-      <c r="A160" s="1">
-        <v>408400.0</v>
-      </c>
-      <c r="B160" s="1">
-        <v>409400.0</v>
+    <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="1" t="n">
+        <v>408400</v>
+      </c>
+      <c r="B160" s="1" t="n">
+        <v>409400</v>
       </c>
       <c r="C160" s="1" t="s">
         <v>44</v>
@@ -3483,26 +3528,26 @@
         <v>9</v>
       </c>
     </row>
-    <row r="161">
-      <c r="A161" s="1">
-        <v>409400.0</v>
-      </c>
-      <c r="B161" s="1">
-        <v>413400.0</v>
+    <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="1" t="n">
+        <v>409400</v>
+      </c>
+      <c r="B161" s="1" t="n">
+        <v>413400</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D161" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="162">
-      <c r="A162" s="1">
-        <v>413400.0</v>
-      </c>
-      <c r="B162" s="1">
-        <v>415400.0</v>
+    <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="1" t="n">
+        <v>413400</v>
+      </c>
+      <c r="B162" s="1" t="n">
+        <v>415400</v>
       </c>
       <c r="C162" s="1" t="s">
         <v>92</v>
@@ -3510,8 +3555,8 @@
       <c r="D162" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E162" s="1">
-        <v>8.0</v>
+      <c r="E162" s="1" t="n">
+        <v>8</v>
       </c>
       <c r="F162" s="1" t="s">
         <v>80</v>
@@ -3520,26 +3565,26 @@
         <v>87</v>
       </c>
     </row>
-    <row r="163">
-      <c r="A163" s="1">
-        <v>415400.0</v>
-      </c>
-      <c r="B163" s="1">
-        <v>418400.0</v>
+    <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="1" t="n">
+        <v>415400</v>
+      </c>
+      <c r="B163" s="1" t="n">
+        <v>418400</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D163" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="164">
-      <c r="A164" s="1">
-        <v>418400.0</v>
-      </c>
-      <c r="B164" s="1">
-        <v>420400.0</v>
+    <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="1" t="n">
+        <v>418400</v>
+      </c>
+      <c r="B164" s="1" t="n">
+        <v>420400</v>
       </c>
       <c r="C164" s="1" t="s">
         <v>92</v>
@@ -3550,19 +3595,17 @@
       <c r="F164" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="H164" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1">
-        <v>420400.0</v>
-      </c>
-      <c r="B165" s="1">
-        <v>423400.0</v>
+      <c r="H164" s="1"/>
+    </row>
+    <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="1" t="n">
+        <v>420400</v>
+      </c>
+      <c r="B165" s="1" t="n">
+        <v>423400</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D165" s="1" t="s">
         <v>66</v>
@@ -3571,43 +3614,43 @@
         <v>80</v>
       </c>
     </row>
-    <row r="166">
-      <c r="A166" s="1">
-        <v>423400.0</v>
-      </c>
-      <c r="B166" s="1">
-        <v>424400.0</v>
+    <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="1" t="n">
+        <v>423400</v>
+      </c>
+      <c r="B166" s="1" t="n">
+        <v>424400</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D166" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="167">
-      <c r="A167" s="1">
-        <v>424400.0</v>
-      </c>
-      <c r="B167" s="1">
-        <v>426400.0</v>
+    <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="1" t="n">
+        <v>424400</v>
+      </c>
+      <c r="B167" s="1" t="n">
+        <v>426400</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D167" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="168">
-      <c r="A168" s="1">
-        <v>426400.0</v>
-      </c>
-      <c r="B168" s="1">
-        <v>429400.0</v>
+    <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="1" t="n">
+        <v>426400</v>
+      </c>
+      <c r="B168" s="1" t="n">
+        <v>429400</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D168" s="1" t="s">
         <v>66</v>
@@ -3616,43 +3659,43 @@
         <v>80</v>
       </c>
     </row>
-    <row r="169">
-      <c r="A169" s="1">
-        <v>429400.0</v>
-      </c>
-      <c r="B169" s="1">
-        <v>431400.0</v>
+    <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="1" t="n">
+        <v>429400</v>
+      </c>
+      <c r="B169" s="1" t="n">
+        <v>431400</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D169" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="170">
-      <c r="A170" s="1">
-        <v>431400.0</v>
-      </c>
-      <c r="B170" s="1">
-        <v>436400.0</v>
+    <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="1" t="n">
+        <v>431400</v>
+      </c>
+      <c r="B170" s="1" t="n">
+        <v>436400</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D170" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="171">
-      <c r="A171" s="1">
-        <v>436400.0</v>
-      </c>
-      <c r="B171" s="1">
-        <v>438400.0</v>
+    <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="1" t="n">
+        <v>436400</v>
+      </c>
+      <c r="B171" s="1" t="n">
+        <v>438400</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D171" s="1" t="s">
         <v>66</v>
@@ -3661,15 +3704,15 @@
         <v>80</v>
       </c>
     </row>
-    <row r="172">
-      <c r="A172" s="1">
-        <v>438400.0</v>
-      </c>
-      <c r="B172" s="1">
-        <v>439880.0</v>
+    <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="1" t="n">
+        <v>438400</v>
+      </c>
+      <c r="B172" s="1" t="n">
+        <v>439880</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D172" s="1" t="s">
         <v>66</v>
@@ -3678,43 +3721,43 @@
         <v>80</v>
       </c>
     </row>
-    <row r="173">
-      <c r="A173" s="1">
-        <v>439960.0</v>
-      </c>
-      <c r="B173" s="1">
-        <v>440840.0</v>
+    <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="1" t="n">
+        <v>439960</v>
+      </c>
+      <c r="B173" s="1" t="n">
+        <v>440840</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D173" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="174">
-      <c r="A174" s="1">
-        <v>440880.0</v>
-      </c>
-      <c r="B174" s="1">
-        <v>442060.0</v>
+    <row r="174" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="1" t="n">
+        <v>440880</v>
+      </c>
+      <c r="B174" s="1" t="n">
+        <v>442060</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D174" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="175">
-      <c r="A175" s="1">
-        <v>442240.0</v>
-      </c>
-      <c r="B175" s="1">
-        <v>444260.0</v>
+    <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="1" t="n">
+        <v>442240</v>
+      </c>
+      <c r="B175" s="1" t="n">
+        <v>444260</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D175" s="1" t="s">
         <v>66</v>
@@ -3723,29 +3766,29 @@
         <v>80</v>
       </c>
     </row>
-    <row r="176">
-      <c r="A176" s="1">
-        <v>444340.0</v>
-      </c>
-      <c r="B176" s="1">
-        <v>446240.0</v>
+    <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="1" t="n">
+        <v>444340</v>
+      </c>
+      <c r="B176" s="1" t="n">
+        <v>446240</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D176" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="177">
-      <c r="A177" s="1">
-        <v>446780.0</v>
-      </c>
-      <c r="B177" s="1">
-        <v>447580.0</v>
+    <row r="177" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="1" t="n">
+        <v>446780</v>
+      </c>
+      <c r="B177" s="1" t="n">
+        <v>447580</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D177" s="1" t="s">
         <v>66</v>
@@ -3753,33 +3796,31 @@
       <c r="F177" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="H177" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1">
-        <v>448380.0</v>
-      </c>
-      <c r="B178" s="1">
-        <v>450440.0</v>
+      <c r="H177" s="1"/>
+    </row>
+    <row r="178" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="1" t="n">
+        <v>448380</v>
+      </c>
+      <c r="B178" s="1" t="n">
+        <v>450440</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D178" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="179">
-      <c r="A179" s="1">
-        <v>450440.0</v>
-      </c>
-      <c r="B179" s="1">
-        <v>451640.0</v>
+    <row r="179" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="1" t="n">
+        <v>450440</v>
+      </c>
+      <c r="B179" s="1" t="n">
+        <v>451640</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D179" s="1" t="s">
         <v>47</v>
@@ -3788,15 +3829,15 @@
         <v>89</v>
       </c>
     </row>
-    <row r="180">
-      <c r="A180" s="1">
-        <v>452280.0</v>
-      </c>
-      <c r="B180" s="1">
-        <v>453520.0</v>
+    <row r="180" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="1" t="n">
+        <v>452280</v>
+      </c>
+      <c r="B180" s="1" t="n">
+        <v>453520</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D180" s="1" t="s">
         <v>47</v>
@@ -3805,29 +3846,29 @@
         <v>89</v>
       </c>
     </row>
-    <row r="181">
-      <c r="A181" s="1">
-        <v>453680.0</v>
-      </c>
-      <c r="B181" s="1">
-        <v>455320.0</v>
+    <row r="181" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="1" t="n">
+        <v>453680</v>
+      </c>
+      <c r="B181" s="1" t="n">
+        <v>455320</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D181" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="182">
-      <c r="A182" s="1">
-        <v>456800.0</v>
-      </c>
-      <c r="B182" s="1">
-        <v>460600.0</v>
+    <row r="182" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="1" t="n">
+        <v>456800</v>
+      </c>
+      <c r="B182" s="1" t="n">
+        <v>460600</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D182" s="1" t="s">
         <v>47</v>
@@ -3836,15 +3877,15 @@
         <v>89</v>
       </c>
     </row>
-    <row r="183">
-      <c r="A183" s="1">
-        <v>460760.0</v>
-      </c>
-      <c r="B183" s="1">
-        <v>462000.0</v>
+    <row r="183" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="1" t="n">
+        <v>460760</v>
+      </c>
+      <c r="B183" s="1" t="n">
+        <v>462000</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D183" s="1" t="s">
         <v>66</v>
@@ -3853,29 +3894,29 @@
         <v>80</v>
       </c>
     </row>
-    <row r="184">
-      <c r="A184" s="1">
-        <v>462240.0</v>
-      </c>
-      <c r="B184" s="1">
-        <v>463400.0</v>
+    <row r="184" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A184" s="1" t="n">
+        <v>462240</v>
+      </c>
+      <c r="B184" s="1" t="n">
+        <v>463400</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D184" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="185">
-      <c r="A185" s="1">
-        <v>463980.0</v>
-      </c>
-      <c r="B185" s="1">
-        <v>465600.0</v>
+    <row r="185" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A185" s="1" t="n">
+        <v>463980</v>
+      </c>
+      <c r="B185" s="1" t="n">
+        <v>465600</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D185" s="1" t="s">
         <v>66</v>
@@ -3884,29 +3925,29 @@
         <v>80</v>
       </c>
     </row>
-    <row r="186">
-      <c r="A186" s="1">
-        <v>465600.0</v>
-      </c>
-      <c r="B186" s="1">
-        <v>466600.0</v>
+    <row r="186" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A186" s="1" t="n">
+        <v>465600</v>
+      </c>
+      <c r="B186" s="1" t="n">
+        <v>466600</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D186" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="187">
-      <c r="A187" s="1">
-        <v>466600.0</v>
-      </c>
-      <c r="B187" s="1">
-        <v>467600.0</v>
+    <row r="187" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A187" s="1" t="n">
+        <v>466600</v>
+      </c>
+      <c r="B187" s="1" t="n">
+        <v>467600</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D187" s="1" t="s">
         <v>66</v>
@@ -3915,43 +3956,43 @@
         <v>80</v>
       </c>
     </row>
-    <row r="188">
-      <c r="A188" s="1">
-        <v>467600.0</v>
-      </c>
-      <c r="B188" s="1">
-        <v>470600.0</v>
+    <row r="188" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A188" s="1" t="n">
+        <v>467600</v>
+      </c>
+      <c r="B188" s="1" t="n">
+        <v>470600</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D188" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="189">
-      <c r="A189" s="1">
-        <v>470600.0</v>
-      </c>
-      <c r="B189" s="1">
-        <v>472600.0</v>
+    <row r="189" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A189" s="1" t="n">
+        <v>470600</v>
+      </c>
+      <c r="B189" s="1" t="n">
+        <v>472600</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D189" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="190">
-      <c r="A190" s="1">
-        <v>472600.0</v>
-      </c>
-      <c r="B190" s="1">
-        <v>474600.0</v>
+    <row r="190" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A190" s="1" t="n">
+        <v>472600</v>
+      </c>
+      <c r="B190" s="1" t="n">
+        <v>474600</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D190" s="1" t="s">
         <v>47</v>
@@ -3960,15 +4001,15 @@
         <v>89</v>
       </c>
     </row>
-    <row r="191">
-      <c r="A191" s="1">
-        <v>474600.0</v>
-      </c>
-      <c r="B191" s="1">
-        <v>477600.0</v>
+    <row r="191" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A191" s="1" t="n">
+        <v>474600</v>
+      </c>
+      <c r="B191" s="1" t="n">
+        <v>477600</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D191" s="1" t="s">
         <v>66</v>
@@ -3977,12 +4018,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="192">
-      <c r="A192" s="1">
-        <v>477600.0</v>
-      </c>
-      <c r="B192" s="1">
-        <v>478600.0</v>
+    <row r="192" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A192" s="1" t="n">
+        <v>477600</v>
+      </c>
+      <c r="B192" s="1" t="n">
+        <v>478600</v>
       </c>
       <c r="C192" s="1" t="s">
         <v>44</v>
@@ -3991,26 +4032,26 @@
         <v>9</v>
       </c>
     </row>
-    <row r="193">
-      <c r="A193" s="1">
-        <v>478600.0</v>
-      </c>
-      <c r="B193" s="1">
-        <v>481600.0</v>
+    <row r="193" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A193" s="1" t="n">
+        <v>478600</v>
+      </c>
+      <c r="B193" s="1" t="n">
+        <v>481600</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D193" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="194">
-      <c r="A194" s="1">
-        <v>481600.0</v>
-      </c>
-      <c r="B194" s="1">
-        <v>482600.0</v>
+    <row r="194" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A194" s="1" t="n">
+        <v>481600</v>
+      </c>
+      <c r="B194" s="1" t="n">
+        <v>482600</v>
       </c>
       <c r="C194" s="1" t="s">
         <v>92</v>
@@ -4021,16 +4062,14 @@
       <c r="F194" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="H194" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1">
-        <v>482600.0</v>
-      </c>
-      <c r="B195" s="1">
-        <v>483600.0</v>
+      <c r="H194" s="1"/>
+    </row>
+    <row r="195" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A195" s="1" t="n">
+        <v>482600</v>
+      </c>
+      <c r="B195" s="1" t="n">
+        <v>483600</v>
       </c>
       <c r="C195" s="1" t="s">
         <v>44</v>
@@ -4039,43 +4078,43 @@
         <v>9</v>
       </c>
     </row>
-    <row r="196">
-      <c r="A196" s="1">
-        <v>483600.0</v>
-      </c>
-      <c r="B196" s="1">
-        <v>486600.0</v>
+    <row r="196" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A196" s="1" t="n">
+        <v>483600</v>
+      </c>
+      <c r="B196" s="1" t="n">
+        <v>486600</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D196" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="197">
-      <c r="A197" s="1">
-        <v>486600.0</v>
-      </c>
-      <c r="B197" s="1">
-        <v>488600.0</v>
+    <row r="197" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A197" s="1" t="n">
+        <v>486600</v>
+      </c>
+      <c r="B197" s="1" t="n">
+        <v>488600</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D197" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="198">
-      <c r="A198" s="1">
-        <v>488600.0</v>
-      </c>
-      <c r="B198" s="1">
-        <v>493600.0</v>
+    <row r="198" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A198" s="1" t="n">
+        <v>488600</v>
+      </c>
+      <c r="B198" s="1" t="n">
+        <v>493600</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D198" s="1" t="s">
         <v>47</v>
@@ -4084,15 +4123,15 @@
         <v>89</v>
       </c>
     </row>
-    <row r="199">
-      <c r="A199" s="1">
-        <v>493600.0</v>
-      </c>
-      <c r="B199" s="1">
-        <v>494600.0</v>
+    <row r="199" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A199" s="1" t="n">
+        <v>493600</v>
+      </c>
+      <c r="B199" s="1" t="n">
+        <v>494600</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D199" s="1" t="s">
         <v>66</v>
@@ -4101,12 +4140,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="200">
-      <c r="A200" s="1">
-        <v>494600.0</v>
-      </c>
-      <c r="B200" s="1">
-        <v>495600.0</v>
+    <row r="200" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A200" s="1" t="n">
+        <v>494600</v>
+      </c>
+      <c r="B200" s="1" t="n">
+        <v>495600</v>
       </c>
       <c r="C200" s="1" t="s">
         <v>44</v>
@@ -4115,26 +4154,26 @@
         <v>9</v>
       </c>
     </row>
-    <row r="201">
-      <c r="A201" s="1">
-        <v>495600.0</v>
-      </c>
-      <c r="B201" s="1">
-        <v>500360.0</v>
+    <row r="201" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A201" s="1" t="n">
+        <v>495600</v>
+      </c>
+      <c r="B201" s="1" t="n">
+        <v>500360</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D201" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="202">
-      <c r="A202" s="1">
-        <v>500360.0</v>
-      </c>
-      <c r="B202" s="1">
-        <v>501360.0</v>
+    <row r="202" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A202" s="1" t="n">
+        <v>500360</v>
+      </c>
+      <c r="B202" s="1" t="n">
+        <v>501360</v>
       </c>
       <c r="C202" s="1" t="s">
         <v>92</v>
@@ -4145,16 +4184,14 @@
       <c r="F202" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="H202" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="1">
-        <v>501360.0</v>
-      </c>
-      <c r="B203" s="1">
-        <v>502360.0</v>
+      <c r="H202" s="1"/>
+    </row>
+    <row r="203" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A203" s="1" t="n">
+        <v>501360</v>
+      </c>
+      <c r="B203" s="1" t="n">
+        <v>502360</v>
       </c>
       <c r="C203" s="1" t="s">
         <v>44</v>
@@ -4163,29 +4200,29 @@
         <v>9</v>
       </c>
     </row>
-    <row r="204">
-      <c r="A204" s="1">
-        <v>502360.0</v>
-      </c>
-      <c r="B204" s="1">
-        <v>504360.0</v>
+    <row r="204" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A204" s="1" t="n">
+        <v>502360</v>
+      </c>
+      <c r="B204" s="1" t="n">
+        <v>504360</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D204" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="205">
-      <c r="A205" s="1">
-        <v>504360.0</v>
-      </c>
-      <c r="B205" s="1">
-        <v>506360.0</v>
+    <row r="205" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A205" s="1" t="n">
+        <v>504360</v>
+      </c>
+      <c r="B205" s="1" t="n">
+        <v>506360</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D205" s="1" t="s">
         <v>66</v>
@@ -4194,46 +4231,46 @@
         <v>80</v>
       </c>
     </row>
-    <row r="206">
-      <c r="A206" s="1">
-        <v>506360.0</v>
-      </c>
-      <c r="B206" s="1">
-        <v>507360.0</v>
+    <row r="206" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A206" s="1" t="n">
+        <v>506360</v>
+      </c>
+      <c r="B206" s="1" t="n">
+        <v>507360</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D206" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="207">
-      <c r="A207" s="1">
-        <v>507360.0</v>
-      </c>
-      <c r="B207" s="1">
-        <v>510360.0</v>
+    <row r="207" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A207" s="1" t="n">
+        <v>507360</v>
+      </c>
+      <c r="B207" s="1" t="n">
+        <v>510360</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D207" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E207" s="1">
-        <v>9.0</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="1">
-        <v>510360.0</v>
-      </c>
-      <c r="B208" s="1">
-        <v>511360.0</v>
+      <c r="E207" s="1" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="208" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A208" s="1" t="n">
+        <v>510360</v>
+      </c>
+      <c r="B208" s="1" t="n">
+        <v>511360</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D208" s="1" t="s">
         <v>47</v>
@@ -4242,15 +4279,15 @@
         <v>80</v>
       </c>
     </row>
-    <row r="209">
-      <c r="A209" s="1">
-        <v>511360.0</v>
-      </c>
-      <c r="B209" s="1">
-        <v>512360.0</v>
+    <row r="209" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A209" s="1" t="n">
+        <v>511360</v>
+      </c>
+      <c r="B209" s="1" t="n">
+        <v>512360</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D209" s="1" t="s">
         <v>66</v>
@@ -4259,29 +4296,29 @@
         <v>89</v>
       </c>
     </row>
-    <row r="210">
-      <c r="A210" s="1">
-        <v>512360.0</v>
-      </c>
-      <c r="B210" s="1">
-        <v>516360.0</v>
+    <row r="210" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A210" s="1" t="n">
+        <v>512360</v>
+      </c>
+      <c r="B210" s="1" t="n">
+        <v>516360</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D210" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="211">
-      <c r="A211" s="1">
-        <v>516360.0</v>
-      </c>
-      <c r="B211" s="1">
-        <v>518360.0</v>
+    <row r="211" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A211" s="1" t="n">
+        <v>516360</v>
+      </c>
+      <c r="B211" s="1" t="n">
+        <v>518360</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D211" s="1" t="s">
         <v>47</v>
@@ -4290,18 +4327,18 @@
         <v>80</v>
       </c>
       <c r="H211" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" s="1">
-        <v>516360.0</v>
-      </c>
-      <c r="B212" s="1">
-        <v>518360.0</v>
+        <v>131</v>
+      </c>
+    </row>
+    <row r="212" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A212" s="1" t="n">
+        <v>516360</v>
+      </c>
+      <c r="B212" s="1" t="n">
+        <v>518360</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D212" s="1" t="s">
         <v>66</v>
@@ -4310,60 +4347,60 @@
         <v>89</v>
       </c>
       <c r="H212" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" s="1">
-        <v>518360.0</v>
-      </c>
-      <c r="B213" s="1">
-        <v>521840.0</v>
+        <v>131</v>
+      </c>
+    </row>
+    <row r="213" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A213" s="1" t="n">
+        <v>518360</v>
+      </c>
+      <c r="B213" s="1" t="n">
+        <v>521840</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D213" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="214">
-      <c r="A214" s="1">
-        <v>521840.0</v>
-      </c>
-      <c r="B214" s="1">
-        <v>525360.0</v>
+    <row r="214" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A214" s="1" t="n">
+        <v>521840</v>
+      </c>
+      <c r="B214" s="1" t="n">
+        <v>525360</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D214" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="215">
-      <c r="A215" s="1">
-        <v>525360.0</v>
-      </c>
-      <c r="B215" s="1">
-        <v>527360.0</v>
+    <row r="215" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A215" s="1" t="n">
+        <v>525360</v>
+      </c>
+      <c r="B215" s="1" t="n">
+        <v>527360</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D215" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="216">
-      <c r="A216" s="1">
-        <v>527360.0</v>
-      </c>
-      <c r="B216" s="1">
-        <v>528360.0</v>
+    <row r="216" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A216" s="1" t="n">
+        <v>527360</v>
+      </c>
+      <c r="B216" s="1" t="n">
+        <v>528360</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D216" s="1" t="s">
         <v>66</v>
@@ -4372,66 +4409,64 @@
         <v>89</v>
       </c>
       <c r="H216" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" s="1">
-        <v>528360.0</v>
-      </c>
-      <c r="B217" s="1">
-        <v>529360.0</v>
+        <v>131</v>
+      </c>
+    </row>
+    <row r="217" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A217" s="1" t="n">
+        <v>528360</v>
+      </c>
+      <c r="B217" s="1" t="n">
+        <v>529360</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D217" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="218">
-      <c r="A218" s="1">
-        <v>529360.0</v>
-      </c>
-      <c r="B218" s="1">
-        <v>532360.0</v>
+    <row r="218" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A218" s="1" t="n">
+        <v>529360</v>
+      </c>
+      <c r="B218" s="1" t="n">
+        <v>532360</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D218" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="219">
-      <c r="A219" s="1">
-        <v>532360.0</v>
-      </c>
-      <c r="B219" s="1">
-        <v>534360.0</v>
+    <row r="219" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A219" s="1" t="n">
+        <v>532360</v>
+      </c>
+      <c r="B219" s="1" t="n">
+        <v>534360</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D219" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E219" s="1">
-        <v>10.0</v>
+      <c r="E219" s="1" t="n">
+        <v>10</v>
       </c>
       <c r="F219" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="H219" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" s="1">
-        <v>534360.0</v>
-      </c>
-      <c r="B220" s="1">
-        <v>536360.0</v>
+      <c r="H219" s="1"/>
+    </row>
+    <row r="220" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A220" s="1" t="n">
+        <v>534360</v>
+      </c>
+      <c r="B220" s="1" t="n">
+        <v>536360</v>
       </c>
       <c r="C220" s="1" t="s">
         <v>214</v>
@@ -4440,12 +4475,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="221">
-      <c r="A221" s="1">
-        <v>536360.0</v>
-      </c>
-      <c r="B221" s="1">
-        <v>540360.0</v>
+    <row r="221" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A221" s="1" t="n">
+        <v>536360</v>
+      </c>
+      <c r="B221" s="1" t="n">
+        <v>540360</v>
       </c>
       <c r="C221" s="1" t="s">
         <v>215</v>
@@ -4460,12 +4495,12 @@
         <v>216</v>
       </c>
     </row>
-    <row r="222">
-      <c r="A222" s="1">
-        <v>540360.0</v>
-      </c>
-      <c r="B222" s="1">
-        <v>541360.0</v>
+    <row r="222" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A222" s="1" t="n">
+        <v>540360</v>
+      </c>
+      <c r="B222" s="1" t="n">
+        <v>541360</v>
       </c>
       <c r="C222" s="1" t="s">
         <v>217</v>
@@ -4474,12 +4509,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="223">
-      <c r="A223" s="1">
-        <v>541360.0</v>
-      </c>
-      <c r="B223" s="1">
-        <v>543360.0</v>
+    <row r="223" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A223" s="1" t="n">
+        <v>541360</v>
+      </c>
+      <c r="B223" s="1" t="n">
+        <v>543360</v>
       </c>
       <c r="C223" s="1" t="s">
         <v>218</v>
@@ -4488,15 +4523,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="224">
-      <c r="A224" s="1">
-        <v>543360.0</v>
-      </c>
-      <c r="B224" s="1">
-        <v>546360.0</v>
+    <row r="224" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A224" s="1" t="n">
+        <v>543360</v>
+      </c>
+      <c r="B224" s="1" t="n">
+        <v>546360</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D224" s="1" t="s">
         <v>47</v>
@@ -4505,15 +4540,15 @@
         <v>80</v>
       </c>
       <c r="H224" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" s="1">
-        <v>546360.0</v>
-      </c>
-      <c r="B225" s="1">
-        <v>548360.0</v>
+        <v>137</v>
+      </c>
+    </row>
+    <row r="225" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A225" s="1" t="n">
+        <v>546360</v>
+      </c>
+      <c r="B225" s="1" t="n">
+        <v>548360</v>
       </c>
       <c r="C225" s="1" t="s">
         <v>219</v>
@@ -4522,12 +4557,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="226">
-      <c r="A226" s="1">
-        <v>548360.0</v>
-      </c>
-      <c r="B226" s="1">
-        <v>551360.0</v>
+    <row r="226" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A226" s="1" t="n">
+        <v>548360</v>
+      </c>
+      <c r="B226" s="1" t="n">
+        <v>551360</v>
       </c>
       <c r="C226" s="1" t="s">
         <v>220</v>
@@ -4536,12 +4571,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="227">
-      <c r="A227" s="1">
-        <v>551360.0</v>
-      </c>
-      <c r="B227" s="1">
-        <v>552360.0</v>
+    <row r="227" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A227" s="1" t="n">
+        <v>551360</v>
+      </c>
+      <c r="B227" s="1" t="n">
+        <v>552360</v>
       </c>
       <c r="C227" s="1" t="s">
         <v>221</v>
@@ -4550,12 +4585,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="228">
-      <c r="A228" s="1">
-        <v>552360.0</v>
-      </c>
-      <c r="B228" s="1">
-        <v>553360.0</v>
+    <row r="228" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A228" s="1" t="n">
+        <v>552360</v>
+      </c>
+      <c r="B228" s="1" t="n">
+        <v>553360</v>
       </c>
       <c r="C228" s="1" t="s">
         <v>43</v>
@@ -4564,26 +4599,26 @@
         <v>9</v>
       </c>
     </row>
-    <row r="229">
-      <c r="A229" s="1">
-        <v>553360.0</v>
-      </c>
-      <c r="B229" s="1">
-        <v>554360.0</v>
+    <row r="229" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A229" s="1" t="n">
+        <v>553360</v>
+      </c>
+      <c r="B229" s="1" t="n">
+        <v>554360</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D229" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="230">
-      <c r="A230" s="1">
-        <v>554360.0</v>
-      </c>
-      <c r="B230" s="1">
-        <v>555860.0</v>
+    <row r="230" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A230" s="1" t="n">
+        <v>554360</v>
+      </c>
+      <c r="B230" s="1" t="n">
+        <v>555860</v>
       </c>
       <c r="C230" s="1" t="s">
         <v>222</v>
@@ -4592,12 +4627,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="231">
-      <c r="A231" s="1">
-        <v>555860.0</v>
-      </c>
-      <c r="B231" s="1">
-        <v>557200.0</v>
+    <row r="231" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A231" s="1" t="n">
+        <v>555860</v>
+      </c>
+      <c r="B231" s="1" t="n">
+        <v>557200</v>
       </c>
       <c r="C231" s="1" t="s">
         <v>223</v>
@@ -4606,12 +4641,12 @@
         <v>66</v>
       </c>
     </row>
-    <row r="232">
-      <c r="A232" s="1">
-        <v>558360.0</v>
-      </c>
-      <c r="B232" s="1">
-        <v>559540.0</v>
+    <row r="232" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A232" s="1" t="n">
+        <v>558360</v>
+      </c>
+      <c r="B232" s="1" t="n">
+        <v>559540</v>
       </c>
       <c r="C232" s="1" t="s">
         <v>224</v>
@@ -4620,12 +4655,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="233">
-      <c r="A233" s="1">
-        <v>559980.0</v>
-      </c>
-      <c r="B233" s="1">
-        <v>562360.0</v>
+    <row r="233" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A233" s="1" t="n">
+        <v>559980</v>
+      </c>
+      <c r="B233" s="1" t="n">
+        <v>562360</v>
       </c>
       <c r="C233" s="1" t="s">
         <v>225</v>
@@ -4634,12 +4669,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="234">
-      <c r="A234" s="1">
-        <v>562500.0</v>
-      </c>
-      <c r="B234" s="1">
-        <v>563200.0</v>
+    <row r="234" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A234" s="1" t="n">
+        <v>562500</v>
+      </c>
+      <c r="B234" s="1" t="n">
+        <v>563200</v>
       </c>
       <c r="C234" s="1" t="s">
         <v>226</v>
@@ -4648,12 +4683,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="235">
-      <c r="A235" s="1">
-        <v>563440.0</v>
-      </c>
-      <c r="B235" s="1">
-        <v>564300.0</v>
+    <row r="235" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A235" s="1" t="n">
+        <v>563440</v>
+      </c>
+      <c r="B235" s="1" t="n">
+        <v>564300</v>
       </c>
       <c r="C235" s="1" t="s">
         <v>227</v>
@@ -4662,12 +4697,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="236">
-      <c r="A236" s="1">
-        <v>564420.0</v>
-      </c>
-      <c r="B236" s="1">
-        <v>564820.0</v>
+    <row r="236" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A236" s="1" t="n">
+        <v>564420</v>
+      </c>
+      <c r="B236" s="1" t="n">
+        <v>564820</v>
       </c>
       <c r="C236" s="1" t="s">
         <v>228</v>
@@ -4676,12 +4711,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="237">
-      <c r="A237" s="1">
-        <v>565080.0</v>
-      </c>
-      <c r="B237" s="1">
-        <v>565360.0</v>
+    <row r="237" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A237" s="1" t="n">
+        <v>565080</v>
+      </c>
+      <c r="B237" s="1" t="n">
+        <v>565360</v>
       </c>
       <c r="C237" s="1" t="s">
         <v>72</v>
@@ -4690,12 +4725,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="238">
-      <c r="A238" s="1">
-        <v>565680.0</v>
-      </c>
-      <c r="B238" s="1">
-        <v>568540.0</v>
+    <row r="238" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A238" s="1" t="n">
+        <v>565680</v>
+      </c>
+      <c r="B238" s="1" t="n">
+        <v>568540</v>
       </c>
       <c r="C238" s="1" t="s">
         <v>229</v>
@@ -4703,16 +4738,16 @@
       <c r="D238" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E238" s="1">
-        <v>11.0</v>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" s="1">
-        <v>569800.0</v>
-      </c>
-      <c r="B239" s="1">
-        <v>570080.0</v>
+      <c r="E238" s="1" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="239" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A239" s="1" t="n">
+        <v>569800</v>
+      </c>
+      <c r="B239" s="1" t="n">
+        <v>570080</v>
       </c>
       <c r="C239" s="1" t="s">
         <v>44</v>
@@ -4721,12 +4756,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="240">
-      <c r="A240" s="1">
-        <v>570080.0</v>
-      </c>
-      <c r="B240" s="1">
-        <v>574540.0</v>
+    <row r="240" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A240" s="1" t="n">
+        <v>570080</v>
+      </c>
+      <c r="B240" s="1" t="n">
+        <v>574540</v>
       </c>
       <c r="C240" s="1" t="s">
         <v>230</v>
@@ -4735,12 +4770,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="241">
-      <c r="A241" s="1">
-        <v>574820.0</v>
-      </c>
-      <c r="B241" s="1">
-        <v>575900.0</v>
+    <row r="241" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A241" s="1" t="n">
+        <v>574820</v>
+      </c>
+      <c r="B241" s="1" t="n">
+        <v>575900</v>
       </c>
       <c r="C241" s="1" t="s">
         <v>231</v>
@@ -4749,12 +4784,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="242">
-      <c r="A242" s="1">
-        <v>575960.0</v>
-      </c>
-      <c r="B242" s="1">
-        <v>576760.0</v>
+    <row r="242" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A242" s="1" t="n">
+        <v>575960</v>
+      </c>
+      <c r="B242" s="1" t="n">
+        <v>576760</v>
       </c>
       <c r="C242" s="1" t="s">
         <v>232</v>
@@ -4763,12 +4798,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="243">
-      <c r="A243" s="1">
-        <v>576760.0</v>
-      </c>
-      <c r="B243" s="1">
-        <v>578520.0</v>
+    <row r="243" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A243" s="1" t="n">
+        <v>576760</v>
+      </c>
+      <c r="B243" s="1" t="n">
+        <v>578520</v>
       </c>
       <c r="C243" s="1" t="s">
         <v>233</v>
@@ -4777,12 +4812,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="244">
-      <c r="A244" s="1">
-        <v>578520.0</v>
-      </c>
-      <c r="B244" s="1">
-        <v>580260.0</v>
+    <row r="244" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A244" s="1" t="n">
+        <v>578520</v>
+      </c>
+      <c r="B244" s="1" t="n">
+        <v>580260</v>
       </c>
       <c r="C244" s="1" t="s">
         <v>234</v>
@@ -4791,12 +4826,12 @@
         <v>66</v>
       </c>
     </row>
-    <row r="245">
-      <c r="A245" s="1">
-        <v>580260.0</v>
-      </c>
-      <c r="B245" s="1">
-        <v>583260.0</v>
+    <row r="245" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A245" s="1" t="n">
+        <v>580260</v>
+      </c>
+      <c r="B245" s="1" t="n">
+        <v>583260</v>
       </c>
       <c r="C245" s="1" t="s">
         <v>235</v>
@@ -4805,12 +4840,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="246">
-      <c r="A246" s="1">
-        <v>583260.0</v>
-      </c>
-      <c r="B246" s="1">
-        <v>586260.0</v>
+    <row r="246" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A246" s="1" t="n">
+        <v>583260</v>
+      </c>
+      <c r="B246" s="1" t="n">
+        <v>586260</v>
       </c>
       <c r="C246" s="1" t="s">
         <v>236</v>
@@ -4818,19 +4853,22 @@
       <c r="D246" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E246" s="1">
-        <v>12.0</v>
+      <c r="E246" s="1" t="n">
+        <v>12</v>
       </c>
       <c r="F246" s="1" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="247">
-      <c r="A247" s="1">
-        <v>586260.0</v>
-      </c>
-      <c r="B247" s="1">
-        <v>589260.0</v>
+      <c r="H246" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="247" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A247" s="1" t="n">
+        <v>586260</v>
+      </c>
+      <c r="B247" s="1" t="n">
+        <v>589260</v>
       </c>
       <c r="C247" s="1" t="s">
         <v>237</v>
@@ -4839,12 +4877,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="248">
-      <c r="A248" s="1">
-        <v>589260.0</v>
-      </c>
-      <c r="B248" s="1">
-        <v>591260.0</v>
+    <row r="248" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A248" s="1" t="n">
+        <v>589260</v>
+      </c>
+      <c r="B248" s="1" t="n">
+        <v>591260</v>
       </c>
       <c r="C248" s="1" t="s">
         <v>238</v>
@@ -4856,26 +4894,26 @@
         <v>80</v>
       </c>
     </row>
-    <row r="249">
-      <c r="A249" s="1">
-        <v>591260.0</v>
-      </c>
-      <c r="B249" s="1">
-        <v>593260.0</v>
+    <row r="249" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A249" s="1" t="n">
+        <v>591260</v>
+      </c>
+      <c r="B249" s="1" t="n">
+        <v>593260</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D249" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="250">
-      <c r="A250" s="1">
-        <v>593260.0</v>
-      </c>
-      <c r="B250" s="1">
-        <v>594260.0</v>
+    <row r="250" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A250" s="1" t="n">
+        <v>593260</v>
+      </c>
+      <c r="B250" s="1" t="n">
+        <v>594260</v>
       </c>
       <c r="C250" s="1" t="s">
         <v>239</v>
@@ -4884,12 +4922,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="251">
-      <c r="A251" s="1">
-        <v>594260.0</v>
-      </c>
-      <c r="B251" s="1">
-        <v>597260.0</v>
+    <row r="251" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A251" s="1" t="n">
+        <v>594260</v>
+      </c>
+      <c r="B251" s="1" t="n">
+        <v>597260</v>
       </c>
       <c r="C251" s="1" t="s">
         <v>240</v>
@@ -4898,12 +4936,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="252">
-      <c r="A252" s="1">
-        <v>597260.0</v>
-      </c>
-      <c r="B252" s="1">
-        <v>600260.0</v>
+    <row r="252" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A252" s="1" t="n">
+        <v>597260</v>
+      </c>
+      <c r="B252" s="1" t="n">
+        <v>600260</v>
       </c>
       <c r="C252" s="1" t="s">
         <v>241</v>
@@ -4912,12 +4950,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="253">
-      <c r="A253" s="1">
-        <v>600260.0</v>
-      </c>
-      <c r="B253" s="1">
-        <v>601260.0</v>
+    <row r="253" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A253" s="1" t="n">
+        <v>600260</v>
+      </c>
+      <c r="B253" s="1" t="n">
+        <v>601260</v>
       </c>
       <c r="C253" s="1" t="s">
         <v>242</v>
@@ -4926,12 +4964,12 @@
         <v>66</v>
       </c>
     </row>
-    <row r="254">
-      <c r="A254" s="1">
-        <v>601260.0</v>
-      </c>
-      <c r="B254" s="1">
-        <v>602260.0</v>
+    <row r="254" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A254" s="1" t="n">
+        <v>601260</v>
+      </c>
+      <c r="B254" s="1" t="n">
+        <v>602260</v>
       </c>
       <c r="C254" s="1" t="s">
         <v>243</v>
@@ -4940,12 +4978,12 @@
         <v>66</v>
       </c>
     </row>
-    <row r="255">
-      <c r="A255" s="1">
-        <v>602260.0</v>
-      </c>
-      <c r="B255" s="1">
-        <v>607320.0</v>
+    <row r="255" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A255" s="1" t="n">
+        <v>602260</v>
+      </c>
+      <c r="B255" s="1" t="n">
+        <v>607320</v>
       </c>
       <c r="C255" s="1" t="s">
         <v>244</v>
@@ -4954,12 +4992,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="256">
-      <c r="A256" s="1">
-        <v>607860.0</v>
-      </c>
-      <c r="B256" s="1">
-        <v>611080.0</v>
+    <row r="256" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A256" s="1" t="n">
+        <v>607860</v>
+      </c>
+      <c r="B256" s="1" t="n">
+        <v>611080</v>
       </c>
       <c r="C256" s="1" t="s">
         <v>245</v>
@@ -4968,12 +5006,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="257">
-      <c r="A257" s="1">
-        <v>611420.0</v>
-      </c>
-      <c r="B257" s="1">
-        <v>614520.0</v>
+    <row r="257" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A257" s="1" t="n">
+        <v>611420</v>
+      </c>
+      <c r="B257" s="1" t="n">
+        <v>614520</v>
       </c>
       <c r="C257" s="1" t="s">
         <v>246</v>
@@ -4982,12 +5020,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="258">
-      <c r="A258" s="1">
-        <v>614940.0</v>
-      </c>
-      <c r="B258" s="1">
-        <v>616260.0</v>
+    <row r="258" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A258" s="1" t="n">
+        <v>614940</v>
+      </c>
+      <c r="B258" s="1" t="n">
+        <v>616260</v>
       </c>
       <c r="C258" s="1" t="s">
         <v>247</v>
@@ -4996,12 +5034,12 @@
         <v>66</v>
       </c>
     </row>
-    <row r="259">
-      <c r="A259" s="1">
-        <v>616940.0</v>
-      </c>
-      <c r="B259" s="1">
-        <v>617480.0</v>
+    <row r="259" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A259" s="1" t="n">
+        <v>616940</v>
+      </c>
+      <c r="B259" s="1" t="n">
+        <v>617480</v>
       </c>
       <c r="C259" s="1" t="s">
         <v>248</v>
@@ -5010,12 +5048,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="260">
-      <c r="A260" s="1">
-        <v>617760.0</v>
-      </c>
-      <c r="B260" s="1">
-        <v>618100.0</v>
+    <row r="260" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A260" s="1" t="n">
+        <v>617760</v>
+      </c>
+      <c r="B260" s="1" t="n">
+        <v>618100</v>
       </c>
       <c r="C260" s="1" t="s">
         <v>14</v>
@@ -5024,12 +5062,12 @@
         <v>66</v>
       </c>
     </row>
-    <row r="261">
-      <c r="A261" s="1">
-        <v>618340.0</v>
-      </c>
-      <c r="B261" s="1">
-        <v>619040.0</v>
+    <row r="261" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A261" s="1" t="n">
+        <v>618340</v>
+      </c>
+      <c r="B261" s="1" t="n">
+        <v>619040</v>
       </c>
       <c r="C261" s="1" t="s">
         <v>249</v>
@@ -5038,12 +5076,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="262">
-      <c r="A262" s="1">
-        <v>619140.0</v>
-      </c>
-      <c r="B262" s="1">
-        <v>619880.0</v>
+    <row r="262" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A262" s="1" t="n">
+        <v>619140</v>
+      </c>
+      <c r="B262" s="1" t="n">
+        <v>619880</v>
       </c>
       <c r="C262" s="1" t="s">
         <v>250</v>
@@ -5052,12 +5090,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="263">
-      <c r="A263" s="1">
-        <v>620020.0</v>
-      </c>
-      <c r="B263" s="1">
-        <v>620220.0</v>
+    <row r="263" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A263" s="1" t="n">
+        <v>620020</v>
+      </c>
+      <c r="B263" s="1" t="n">
+        <v>620220</v>
       </c>
       <c r="C263" s="1" t="s">
         <v>14</v>
@@ -5066,12 +5104,12 @@
         <v>66</v>
       </c>
     </row>
-    <row r="264">
-      <c r="A264" s="1">
-        <v>620660.0</v>
-      </c>
-      <c r="B264" s="1">
-        <v>620920.0</v>
+    <row r="264" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A264" s="1" t="n">
+        <v>620660</v>
+      </c>
+      <c r="B264" s="1" t="n">
+        <v>620920</v>
       </c>
       <c r="C264" s="1" t="s">
         <v>44</v>
@@ -5080,12 +5118,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="265">
-      <c r="A265" s="1">
-        <v>621720.0</v>
-      </c>
-      <c r="B265" s="1">
-        <v>622260.0</v>
+    <row r="265" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A265" s="1" t="n">
+        <v>621720</v>
+      </c>
+      <c r="B265" s="1" t="n">
+        <v>622260</v>
       </c>
       <c r="C265" s="1" t="s">
         <v>251</v>
@@ -5094,12 +5132,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="266">
-      <c r="A266" s="1">
-        <v>622260.0</v>
-      </c>
-      <c r="B266" s="1">
-        <v>623200.0</v>
+    <row r="266" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A266" s="1" t="n">
+        <v>622260</v>
+      </c>
+      <c r="B266" s="1" t="n">
+        <v>623200</v>
       </c>
       <c r="C266" s="1" t="s">
         <v>252</v>
@@ -5108,12 +5146,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="267">
-      <c r="A267" s="1">
-        <v>623200.0</v>
-      </c>
-      <c r="B267" s="1">
-        <v>624520.0</v>
+    <row r="267" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A267" s="1" t="n">
+        <v>623200</v>
+      </c>
+      <c r="B267" s="1" t="n">
+        <v>624520</v>
       </c>
       <c r="C267" s="1" t="s">
         <v>253</v>
@@ -5122,12 +5160,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="268">
-      <c r="A268" s="1">
-        <v>624760.0</v>
-      </c>
-      <c r="B268" s="1">
-        <v>625480.0</v>
+    <row r="268" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A268" s="1" t="n">
+        <v>624760</v>
+      </c>
+      <c r="B268" s="1" t="n">
+        <v>625480</v>
       </c>
       <c r="C268" s="1" t="s">
         <v>254</v>
@@ -5136,12 +5174,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="269">
-      <c r="A269" s="1">
-        <v>625580.0</v>
-      </c>
-      <c r="B269" s="1">
-        <v>627440.0</v>
+    <row r="269" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A269" s="1" t="n">
+        <v>625580</v>
+      </c>
+      <c r="B269" s="1" t="n">
+        <v>627440</v>
       </c>
       <c r="C269" s="1" t="s">
         <v>255</v>
@@ -5151,7 +5189,13 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/data/expt_2/raw_transcripts/game42.xlsx
+++ b/data/expt_2/raw_transcripts/game42.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="258">
   <si>
     <t xml:space="preserve">start</t>
   </si>
@@ -917,11 +917,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1117,9 +1117,9 @@
   <dimension ref="A1:I269"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A243" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A222" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F264" activeCellId="0" sqref="F264"/>
+      <selection pane="bottomLeft" activeCell="F235" activeCellId="0" sqref="F235"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2757,7 +2757,7 @@
       <c r="F107" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="H107" s="4" t="s">
+      <c r="H107" s="3" t="s">
         <v>121</v>
       </c>
       <c r="I107" s="3" t="s">
@@ -3493,6 +3493,9 @@
       <c r="D151" s="2" t="s">
         <v>67</v>
       </c>
+      <c r="F151" s="4" t="s">
+        <v>91</v>
+      </c>
       <c r="I151" s="3" t="s">
         <v>83</v>
       </c>
@@ -4792,6 +4795,9 @@
       <c r="D231" s="2" t="s">
         <v>67</v>
       </c>
+      <c r="F231" s="3" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="232" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="2" t="n">
@@ -4820,6 +4826,9 @@
       <c r="D233" s="2" t="s">
         <v>48</v>
       </c>
+      <c r="F233" s="4" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="234" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="2" t="n">
@@ -4834,6 +4843,7 @@
       <c r="D234" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="F234" s="3"/>
     </row>
     <row r="235" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="2" t="n">
@@ -4977,6 +4987,9 @@
       <c r="D244" s="2" t="s">
         <v>67</v>
       </c>
+      <c r="F244" s="3" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="245" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="2" t="n">
@@ -5011,7 +5024,7 @@
       <c r="F246" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="H246" s="4" t="s">
+      <c r="H246" s="3" t="s">
         <v>139</v>
       </c>
       <c r="I246" s="3" t="s">
@@ -5062,7 +5075,7 @@
       <c r="D249" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E249" s="0" t="n">
+      <c r="E249" s="1" t="n">
         <v>13</v>
       </c>
     </row>

--- a/data/expt_2/raw_transcripts/game42.xlsx
+++ b/data/expt_2/raw_transcripts/game42.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="257">
   <si>
     <t xml:space="preserve">start</t>
   </si>
@@ -517,9 +517,6 @@
   </si>
   <si>
     <t xml:space="preserve">I got to a diamond.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a diamond</t>
   </si>
   <si>
     <t xml:space="preserve">A human carrying a diamond.</t>
@@ -904,7 +901,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -918,10 +915,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1117,9 +1110,9 @@
   <dimension ref="A1:I269"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A222" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F235" activeCellId="0" sqref="F235"/>
+      <selection pane="bottomLeft" activeCell="H148" activeCellId="0" sqref="H148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2541,9 +2534,7 @@
       <c r="F94" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="H94" s="2" t="s">
-        <v>106</v>
-      </c>
+      <c r="H94" s="2"/>
       <c r="I94" s="3" t="s">
         <v>83</v>
       </c>
@@ -3379,9 +3370,7 @@
       <c r="F145" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="H145" s="2" t="s">
-        <v>158</v>
-      </c>
+      <c r="H145" s="2"/>
       <c r="I145" s="3" t="s">
         <v>83</v>
       </c>
@@ -3394,7 +3383,7 @@
         <v>383400</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D146" s="2" t="s">
         <v>48</v>
@@ -3403,7 +3392,7 @@
         <v>81</v>
       </c>
       <c r="H146" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I146" s="3" t="s">
         <v>83</v>
@@ -3431,7 +3420,7 @@
         <v>386400</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D148" s="2" t="s">
         <v>67</v>
@@ -3439,9 +3428,7 @@
       <c r="F148" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="H148" s="2" t="s">
-        <v>118</v>
-      </c>
+      <c r="H148" s="2"/>
       <c r="I148" s="3" t="s">
         <v>83</v>
       </c>
@@ -3454,7 +3441,7 @@
         <v>389400</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D149" s="2" t="s">
         <v>67</v>
@@ -3474,7 +3461,7 @@
         <v>394400</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D150" s="2" t="s">
         <v>10</v>
@@ -3493,7 +3480,7 @@
       <c r="D151" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F151" s="4" t="s">
+      <c r="F151" s="3" t="s">
         <v>91</v>
       </c>
       <c r="I151" s="3" t="s">
@@ -3522,7 +3509,7 @@
         <v>398400</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D153" s="2" t="s">
         <v>10</v>
@@ -3536,7 +3523,7 @@
         <v>399400</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D154" s="2" t="s">
         <v>10</v>
@@ -3550,7 +3537,7 @@
         <v>402400</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D155" s="2" t="s">
         <v>10</v>
@@ -3564,7 +3551,7 @@
         <v>403400</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D156" s="2" t="s">
         <v>10</v>
@@ -3592,7 +3579,7 @@
         <v>406400</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D158" s="2" t="s">
         <v>10</v>
@@ -3606,7 +3593,7 @@
         <v>408400</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D159" s="2" t="s">
         <v>48</v>
@@ -3637,7 +3624,7 @@
         <v>413400</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D161" s="2" t="s">
         <v>10</v>
@@ -3677,7 +3664,7 @@
         <v>418400</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D163" s="2" t="s">
         <v>10</v>
@@ -3712,7 +3699,7 @@
         <v>423400</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D165" s="2" t="s">
         <v>67</v>
@@ -3729,7 +3716,7 @@
         <v>424400</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D166" s="2" t="s">
         <v>10</v>
@@ -3743,7 +3730,7 @@
         <v>426400</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D167" s="2" t="s">
         <v>10</v>
@@ -3757,7 +3744,7 @@
         <v>429400</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D168" s="2" t="s">
         <v>67</v>
@@ -3774,7 +3761,7 @@
         <v>431400</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D169" s="2" t="s">
         <v>10</v>
@@ -3788,7 +3775,7 @@
         <v>436400</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D170" s="2" t="s">
         <v>10</v>
@@ -3802,7 +3789,7 @@
         <v>438400</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D171" s="2" t="s">
         <v>67</v>
@@ -3819,7 +3806,7 @@
         <v>439880</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D172" s="2" t="s">
         <v>67</v>
@@ -3836,7 +3823,7 @@
         <v>440840</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D173" s="2" t="s">
         <v>10</v>
@@ -3850,7 +3837,7 @@
         <v>442060</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D174" s="2" t="s">
         <v>10</v>
@@ -3864,7 +3851,7 @@
         <v>444260</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D175" s="2" t="s">
         <v>67</v>
@@ -3881,7 +3868,7 @@
         <v>446240</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D176" s="2" t="s">
         <v>10</v>
@@ -3895,7 +3882,7 @@
         <v>447580</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D177" s="2" t="s">
         <v>67</v>
@@ -3916,7 +3903,7 @@
         <v>450440</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D178" s="2" t="s">
         <v>10</v>
@@ -3930,7 +3917,7 @@
         <v>451640</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D179" s="2" t="s">
         <v>48</v>
@@ -3950,7 +3937,7 @@
         <v>453520</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D180" s="2" t="s">
         <v>48</v>
@@ -3970,7 +3957,7 @@
         <v>455320</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D181" s="2" t="s">
         <v>10</v>
@@ -3984,7 +3971,7 @@
         <v>460600</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D182" s="2" t="s">
         <v>48</v>
@@ -4004,7 +3991,7 @@
         <v>462000</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D183" s="2" t="s">
         <v>67</v>
@@ -4021,7 +4008,7 @@
         <v>463400</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D184" s="2" t="s">
         <v>10</v>
@@ -4035,7 +4022,7 @@
         <v>465600</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D185" s="2" t="s">
         <v>67</v>
@@ -4052,7 +4039,7 @@
         <v>466600</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D186" s="2" t="s">
         <v>10</v>
@@ -4066,7 +4053,7 @@
         <v>467600</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D187" s="2" t="s">
         <v>67</v>
@@ -4083,7 +4070,7 @@
         <v>470600</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D188" s="2" t="s">
         <v>10</v>
@@ -4097,7 +4084,7 @@
         <v>472600</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D189" s="2" t="s">
         <v>10</v>
@@ -4111,7 +4098,7 @@
         <v>474600</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D190" s="2" t="s">
         <v>48</v>
@@ -4131,7 +4118,7 @@
         <v>477600</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D191" s="2" t="s">
         <v>67</v>
@@ -4162,7 +4149,7 @@
         <v>481600</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D193" s="2" t="s">
         <v>10</v>
@@ -4211,7 +4198,7 @@
         <v>486600</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D196" s="2" t="s">
         <v>10</v>
@@ -4225,7 +4212,7 @@
         <v>488600</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D197" s="2" t="s">
         <v>10</v>
@@ -4239,7 +4226,7 @@
         <v>493600</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D198" s="2" t="s">
         <v>48</v>
@@ -4259,7 +4246,7 @@
         <v>494600</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D199" s="2" t="s">
         <v>67</v>
@@ -4290,7 +4277,7 @@
         <v>500360</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D201" s="2" t="s">
         <v>10</v>
@@ -4339,7 +4326,7 @@
         <v>504360</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D204" s="2" t="s">
         <v>10</v>
@@ -4353,7 +4340,7 @@
         <v>506360</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D205" s="2" t="s">
         <v>67</v>
@@ -4387,7 +4374,7 @@
         <v>510360</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D207" s="2" t="s">
         <v>10</v>
@@ -4404,7 +4391,7 @@
         <v>511360</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D208" s="2" t="s">
         <v>48</v>
@@ -4421,7 +4408,7 @@
         <v>512360</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D209" s="2" t="s">
         <v>67</v>
@@ -4441,7 +4428,7 @@
         <v>516360</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D210" s="2" t="s">
         <v>10</v>
@@ -4455,7 +4442,7 @@
         <v>518360</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D211" s="2" t="s">
         <v>48</v>
@@ -4478,7 +4465,7 @@
         <v>518360</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D212" s="2" t="s">
         <v>67</v>
@@ -4501,7 +4488,7 @@
         <v>521840</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D213" s="2" t="s">
         <v>10</v>
@@ -4515,7 +4502,7 @@
         <v>525360</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D214" s="2" t="s">
         <v>10</v>
@@ -4543,7 +4530,7 @@
         <v>528360</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D216" s="2" t="s">
         <v>67</v>
@@ -4580,7 +4567,7 @@
         <v>532360</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D218" s="2" t="s">
         <v>10</v>
@@ -4594,7 +4581,7 @@
         <v>534360</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D219" s="2" t="s">
         <v>67</v>
@@ -4618,7 +4605,7 @@
         <v>536360</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D220" s="2" t="s">
         <v>10</v>
@@ -4632,7 +4619,7 @@
         <v>540360</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D221" s="2" t="s">
         <v>67</v>
@@ -4641,7 +4628,7 @@
         <v>81</v>
       </c>
       <c r="H221" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I221" s="3" t="s">
         <v>83</v>
@@ -4655,7 +4642,7 @@
         <v>541360</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D222" s="2" t="s">
         <v>10</v>
@@ -4669,7 +4656,7 @@
         <v>543360</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D223" s="2" t="s">
         <v>10</v>
@@ -4706,7 +4693,7 @@
         <v>548360</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D225" s="2" t="s">
         <v>10</v>
@@ -4720,7 +4707,7 @@
         <v>551360</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D226" s="2" t="s">
         <v>10</v>
@@ -4734,7 +4721,7 @@
         <v>552360</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D227" s="2" t="s">
         <v>10</v>
@@ -4776,7 +4763,7 @@
         <v>555860</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D230" s="2" t="s">
         <v>10</v>
@@ -4790,7 +4777,7 @@
         <v>557200</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D231" s="2" t="s">
         <v>67</v>
@@ -4807,7 +4794,7 @@
         <v>559540</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D232" s="2" t="s">
         <v>10</v>
@@ -4821,12 +4808,12 @@
         <v>562360</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D233" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F233" s="4" t="s">
+      <c r="F233" s="3" t="s">
         <v>91</v>
       </c>
     </row>
@@ -4838,7 +4825,7 @@
         <v>563200</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D234" s="2" t="s">
         <v>10</v>
@@ -4853,7 +4840,7 @@
         <v>564300</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D235" s="2" t="s">
         <v>10</v>
@@ -4867,7 +4854,7 @@
         <v>564820</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D236" s="2" t="s">
         <v>10</v>
@@ -4895,7 +4882,7 @@
         <v>568540</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D238" s="2" t="s">
         <v>10</v>
@@ -4926,7 +4913,7 @@
         <v>574540</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D240" s="2" t="s">
         <v>10</v>
@@ -4940,7 +4927,7 @@
         <v>575900</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D241" s="2" t="s">
         <v>10</v>
@@ -4954,7 +4941,7 @@
         <v>576760</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D242" s="2" t="s">
         <v>10</v>
@@ -4968,7 +4955,7 @@
         <v>578520</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D243" s="2" t="s">
         <v>10</v>
@@ -4982,7 +4969,7 @@
         <v>580260</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D244" s="2" t="s">
         <v>67</v>
@@ -4999,7 +4986,7 @@
         <v>583260</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D245" s="2" t="s">
         <v>10</v>
@@ -5013,7 +5000,7 @@
         <v>586260</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D246" s="2" t="s">
         <v>67</v>
@@ -5039,7 +5026,7 @@
         <v>589260</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D247" s="2" t="s">
         <v>10</v>
@@ -5053,7 +5040,7 @@
         <v>591260</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D248" s="2" t="s">
         <v>67</v>
@@ -5087,7 +5074,7 @@
         <v>594260</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D250" s="2" t="s">
         <v>10</v>
@@ -5101,7 +5088,7 @@
         <v>597260</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D251" s="2" t="s">
         <v>10</v>
@@ -5115,7 +5102,7 @@
         <v>600260</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D252" s="2" t="s">
         <v>10</v>
@@ -5129,7 +5116,7 @@
         <v>601260</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D253" s="2" t="s">
         <v>67</v>
@@ -5146,7 +5133,7 @@
         <v>602260</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D254" s="2" t="s">
         <v>67</v>
@@ -5163,7 +5150,7 @@
         <v>607320</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D255" s="2" t="s">
         <v>10</v>
@@ -5177,7 +5164,7 @@
         <v>611080</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D256" s="2" t="s">
         <v>10</v>
@@ -5191,7 +5178,7 @@
         <v>614520</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D257" s="2" t="s">
         <v>10</v>
@@ -5205,7 +5192,7 @@
         <v>616260</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D258" s="2" t="s">
         <v>67</v>
@@ -5222,7 +5209,7 @@
         <v>617480</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D259" s="2" t="s">
         <v>10</v>
@@ -5253,7 +5240,7 @@
         <v>619040</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D261" s="2" t="s">
         <v>10</v>
@@ -5267,7 +5254,7 @@
         <v>619880</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D262" s="2" t="s">
         <v>10</v>
@@ -5312,7 +5299,7 @@
         <v>622260</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D265" s="2" t="s">
         <v>10</v>
@@ -5326,7 +5313,7 @@
         <v>623200</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D266" s="2" t="s">
         <v>10</v>
@@ -5340,7 +5327,7 @@
         <v>624520</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D267" s="2" t="s">
         <v>10</v>
@@ -5354,7 +5341,7 @@
         <v>625480</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D268" s="2" t="s">
         <v>10</v>
@@ -5368,7 +5355,7 @@
         <v>627440</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D269" s="2" t="s">
         <v>10</v>
